--- a/simulations/2024_02_14.xlsx
+++ b/simulations/2024_02_14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N477"/>
+  <dimension ref="A1:N651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22401,6 +22401,8010 @@
         <v>10</v>
       </c>
     </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>17.39923696567962</v>
+      </c>
+      <c r="B478" t="n">
+        <v>5.871219644444718</v>
+      </c>
+      <c r="C478" t="n">
+        <v>1.064426667246019</v>
+      </c>
+      <c r="D478" t="n">
+        <v>2.072930181737318</v>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F478" t="n">
+        <v>0.1570034727731817</v>
+      </c>
+      <c r="G478" t="n">
+        <v>1.225027131239563</v>
+      </c>
+      <c r="H478" t="n">
+        <v>300</v>
+      </c>
+      <c r="I478" t="n">
+        <v>0.0003176324710830736</v>
+      </c>
+      <c r="J478" t="n">
+        <v>0.001376508499230544</v>
+      </c>
+      <c r="K478" t="n">
+        <v>0.001132752264445536</v>
+      </c>
+      <c r="L478" t="n">
+        <v>900</v>
+      </c>
+      <c r="M478" t="n">
+        <v>72.5966976815356</v>
+      </c>
+      <c r="N478" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>110.5964235706515</v>
+      </c>
+      <c r="B479" t="n">
+        <v>2.712565111188729</v>
+      </c>
+      <c r="C479" t="n">
+        <v>1.33220256383372</v>
+      </c>
+      <c r="D479" t="n">
+        <v>1.261232936962515</v>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F479" t="n">
+        <v>1.074688230950836</v>
+      </c>
+      <c r="G479" t="n">
+        <v>1.88484374544215</v>
+      </c>
+      <c r="H479" t="n">
+        <v>300</v>
+      </c>
+      <c r="I479" t="n">
+        <v>0.002705317256637363</v>
+      </c>
+      <c r="J479" t="n">
+        <v>0.02509792727272731</v>
+      </c>
+      <c r="K479" t="n">
+        <v>0.01545512831541218</v>
+      </c>
+      <c r="L479" t="n">
+        <v>900</v>
+      </c>
+      <c r="M479" t="n">
+        <v>43.9842232827585</v>
+      </c>
+      <c r="N479" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>105.4962582623114</v>
+      </c>
+      <c r="B480" t="n">
+        <v>2.843702752509612</v>
+      </c>
+      <c r="C480" t="n">
+        <v>1.305106561957705</v>
+      </c>
+      <c r="D480" t="n">
+        <v>1.287772143514908</v>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F480" t="n">
+        <v>1.111073318788536</v>
+      </c>
+      <c r="G480" t="n">
+        <v>1.844541580883</v>
+      </c>
+      <c r="H480" t="n">
+        <v>300</v>
+      </c>
+      <c r="I480" t="n">
+        <v>0.002925153805774294</v>
+      </c>
+      <c r="J480" t="n">
+        <v>0.07764884699352448</v>
+      </c>
+      <c r="K480" t="n">
+        <v>0.06162832727272727</v>
+      </c>
+      <c r="L480" t="n">
+        <v>900</v>
+      </c>
+      <c r="M480" t="n">
+        <v>46.13232659767175</v>
+      </c>
+      <c r="N480" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>2.09621732792661</v>
+      </c>
+      <c r="B481" t="n">
+        <v>3.512931038258229</v>
+      </c>
+      <c r="C481" t="n">
+        <v>0.9165589357478434</v>
+      </c>
+      <c r="D481" t="n">
+        <v>1.687601379371364</v>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F481" t="n">
+        <v>1.637959855447458</v>
+      </c>
+      <c r="G481" t="n">
+        <v>0.7556572040307808</v>
+      </c>
+      <c r="H481" t="n">
+        <v>63.53336164077304</v>
+      </c>
+      <c r="I481" t="n">
+        <v>0.0004356085700868428</v>
+      </c>
+      <c r="J481" t="n">
+        <v>0.0002333122881101879</v>
+      </c>
+      <c r="K481" t="n">
+        <v>0.001103259944849055</v>
+      </c>
+      <c r="L481" t="n">
+        <v>40.36488041377252</v>
+      </c>
+      <c r="M481" t="n">
+        <v>64.31038349127802</v>
+      </c>
+      <c r="N481" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>20.11901694101401</v>
+      </c>
+      <c r="B482" t="n">
+        <v>5.821816607938501</v>
+      </c>
+      <c r="C482" t="n">
+        <v>1.021106801138517</v>
+      </c>
+      <c r="D482" t="n">
+        <v>2.041559655631501</v>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F482" t="n">
+        <v>1.67868516969308</v>
+      </c>
+      <c r="G482" t="n">
+        <v>1.255772691663551</v>
+      </c>
+      <c r="H482" t="n">
+        <v>300</v>
+      </c>
+      <c r="I482" t="n">
+        <v>0.0005994475807279409</v>
+      </c>
+      <c r="J482" t="n">
+        <v>0.0151916474626892</v>
+      </c>
+      <c r="K482" t="n">
+        <v>0.1588847467682871</v>
+      </c>
+      <c r="L482" t="n">
+        <v>900</v>
+      </c>
+      <c r="M482" t="n">
+        <v>72.06817792240081</v>
+      </c>
+      <c r="N482" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>5.216421677459972</v>
+      </c>
+      <c r="B483" t="n">
+        <v>5.045802541596406</v>
+      </c>
+      <c r="C483" t="n">
+        <v>0.9226895440938118</v>
+      </c>
+      <c r="D483" t="n">
+        <v>2.064063127805591</v>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F483" t="n">
+        <v>0.8299129740777207</v>
+      </c>
+      <c r="G483" t="n">
+        <v>0.9870786293842762</v>
+      </c>
+      <c r="H483" t="n">
+        <v>200.7195147331354</v>
+      </c>
+      <c r="I483" t="n">
+        <v>0.07414349797982611</v>
+      </c>
+      <c r="J483" t="n">
+        <v>0.2059363375472559</v>
+      </c>
+      <c r="K483" t="n">
+        <v>0.3410585366526497</v>
+      </c>
+      <c r="L483" t="n">
+        <v>402.8832359470534</v>
+      </c>
+      <c r="M483" t="n">
+        <v>72.44924940036768</v>
+      </c>
+      <c r="N483" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>1.123632396307249</v>
+      </c>
+      <c r="B484" t="n">
+        <v>2.972501483467783</v>
+      </c>
+      <c r="C484" t="n">
+        <v>0.916971499236574</v>
+      </c>
+      <c r="D484" t="n">
+        <v>1.56811461649667</v>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F484" t="n">
+        <v>0.6284190016093244</v>
+      </c>
+      <c r="G484" t="n">
+        <v>0.5545349412042768</v>
+      </c>
+      <c r="H484" t="n">
+        <v>18.97948201101595</v>
+      </c>
+      <c r="I484" t="n">
+        <v>0.1721674570040503</v>
+      </c>
+      <c r="J484" t="n">
+        <v>0.05264150127700074</v>
+      </c>
+      <c r="K484" t="n">
+        <v>0.1555394973782417</v>
+      </c>
+      <c r="L484" t="n">
+        <v>2</v>
+      </c>
+      <c r="M484" t="n">
+        <v>60.53030753197805</v>
+      </c>
+      <c r="N484" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>2.91383024221898</v>
+      </c>
+      <c r="B485" t="n">
+        <v>4.142542124094502</v>
+      </c>
+      <c r="C485" t="n">
+        <v>1.02672282437264</v>
+      </c>
+      <c r="D485" t="n">
+        <v>1.835510729567828</v>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F485" t="n">
+        <v>1.021008521999345</v>
+      </c>
+      <c r="G485" t="n">
+        <v>0.858539223568185</v>
+      </c>
+      <c r="H485" t="n">
+        <v>90.05923374621331</v>
+      </c>
+      <c r="I485" t="n">
+        <v>0.165116310935683</v>
+      </c>
+      <c r="J485" t="n">
+        <v>0.1650601634774689</v>
+      </c>
+      <c r="K485" t="n">
+        <v>0.3610059408066081</v>
+      </c>
+      <c r="L485" t="n">
+        <v>81.10665582955086</v>
+      </c>
+      <c r="M485" t="n">
+        <v>68.03262790636491</v>
+      </c>
+      <c r="N485" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>84.41139308961034</v>
+      </c>
+      <c r="B486" t="n">
+        <v>3.451456470873349</v>
+      </c>
+      <c r="C486" t="n">
+        <v>1.238619648526001</v>
+      </c>
+      <c r="D486" t="n">
+        <v>1.394804600214878</v>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F486" t="n">
+        <v>1.706484350295677</v>
+      </c>
+      <c r="G486" t="n">
+        <v>1.70898463886477</v>
+      </c>
+      <c r="H486" t="n">
+        <v>300</v>
+      </c>
+      <c r="I486" t="n">
+        <v>0.00105041243134385</v>
+      </c>
+      <c r="J486" t="n">
+        <v>0.07281409446415898</v>
+      </c>
+      <c r="K486" t="n">
+        <v>0.09103519411764716</v>
+      </c>
+      <c r="L486" t="n">
+        <v>900</v>
+      </c>
+      <c r="M486" t="n">
+        <v>52.99123006992059</v>
+      </c>
+      <c r="N486" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>10.52483635354658</v>
+      </c>
+      <c r="B487" t="n">
+        <v>5.821711523281114</v>
+      </c>
+      <c r="C487" t="n">
+        <v>1.038439275224856</v>
+      </c>
+      <c r="D487" t="n">
+        <v>2.107493110543265</v>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F487" t="n">
+        <v>2.419619503530207</v>
+      </c>
+      <c r="G487" t="n">
+        <v>1.128862547770272</v>
+      </c>
+      <c r="H487" t="n">
+        <v>300</v>
+      </c>
+      <c r="I487" t="n">
+        <v>0.0002104959417641439</v>
+      </c>
+      <c r="J487" t="n">
+        <v>0.07104014539623371</v>
+      </c>
+      <c r="K487" t="n">
+        <v>0.138991418258238</v>
+      </c>
+      <c r="L487" t="n">
+        <v>900</v>
+      </c>
+      <c r="M487" t="n">
+        <v>73.15746760355164</v>
+      </c>
+      <c r="N487" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>123.0005631580344</v>
+      </c>
+      <c r="B488" t="n">
+        <v>2.439013223171605</v>
+      </c>
+      <c r="C488" t="n">
+        <v>1.37256733010224</v>
+      </c>
+      <c r="D488" t="n">
+        <v>1.210544316968084</v>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F488" t="n">
+        <v>2.379398028946949</v>
+      </c>
+      <c r="G488" t="n">
+        <v>1.989329929548536</v>
+      </c>
+      <c r="H488" t="n">
+        <v>300</v>
+      </c>
+      <c r="I488" t="n">
+        <v>0.01041161398601398</v>
+      </c>
+      <c r="J488" t="n">
+        <v>0.0277735643454039</v>
+      </c>
+      <c r="K488" t="n">
+        <v>0.06197603934426232</v>
+      </c>
+      <c r="L488" t="n">
+        <v>900</v>
+      </c>
+      <c r="M488" t="n">
+        <v>39.1221283768222</v>
+      </c>
+      <c r="N488" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>78.1793634136117</v>
+      </c>
+      <c r="B489" t="n">
+        <v>3.59620760862218</v>
+      </c>
+      <c r="C489" t="n">
+        <v>1.252588227679645</v>
+      </c>
+      <c r="D489" t="n">
+        <v>1.433848222704826</v>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F489" t="n">
+        <v>1.91761132328777</v>
+      </c>
+      <c r="G489" t="n">
+        <v>1.669077956906476</v>
+      </c>
+      <c r="H489" t="n">
+        <v>300</v>
+      </c>
+      <c r="I489" t="n">
+        <v>0.002002976004648716</v>
+      </c>
+      <c r="J489" t="n">
+        <v>0.01058065148741416</v>
+      </c>
+      <c r="K489" t="n">
+        <v>0.1021166435897436</v>
+      </c>
+      <c r="L489" t="n">
+        <v>900</v>
+      </c>
+      <c r="M489" t="n">
+        <v>54.98383776243405</v>
+      </c>
+      <c r="N489" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>1.725299955748725</v>
+      </c>
+      <c r="B490" t="n">
+        <v>3.320880809140607</v>
+      </c>
+      <c r="C490" t="n">
+        <v>1.007045093354539</v>
+      </c>
+      <c r="D490" t="n">
+        <v>1.690884413274008</v>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F490" t="n">
+        <v>1.62840592627788</v>
+      </c>
+      <c r="G490" t="n">
+        <v>0.7058285211251329</v>
+      </c>
+      <c r="H490" t="n">
+        <v>43.27326395464753</v>
+      </c>
+      <c r="I490" t="n">
+        <v>0.1302410507987342</v>
+      </c>
+      <c r="J490" t="n">
+        <v>0.1173756202144686</v>
+      </c>
+      <c r="K490" t="n">
+        <v>0.1232810976525518</v>
+      </c>
+      <c r="L490" t="n">
+        <v>18.72575373288597</v>
+      </c>
+      <c r="M490" t="n">
+        <v>64.40305807550789</v>
+      </c>
+      <c r="N490" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>120.6818101834475</v>
+      </c>
+      <c r="B491" t="n">
+        <v>2.485875870969886</v>
+      </c>
+      <c r="C491" t="n">
+        <v>1.3684595461083</v>
+      </c>
+      <c r="D491" t="n">
+        <v>1.21753668892923</v>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F491" t="n">
+        <v>0.6877867437899299</v>
+      </c>
+      <c r="G491" t="n">
+        <v>1.967507267193348</v>
+      </c>
+      <c r="H491" t="n">
+        <v>300</v>
+      </c>
+      <c r="I491" t="n">
+        <v>0.007723950304043825</v>
+      </c>
+      <c r="J491" t="n">
+        <v>0.01698754610027864</v>
+      </c>
+      <c r="K491" t="n">
+        <v>0.04121076325301198</v>
+      </c>
+      <c r="L491" t="n">
+        <v>900</v>
+      </c>
+      <c r="M491" t="n">
+        <v>39.86459151314493</v>
+      </c>
+      <c r="N491" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>1.864922738041765</v>
+      </c>
+      <c r="B492" t="n">
+        <v>3.424242658055286</v>
+      </c>
+      <c r="C492" t="n">
+        <v>0.9499765809978451</v>
+      </c>
+      <c r="D492" t="n">
+        <v>1.69652403591305</v>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F492" t="n">
+        <v>2.855660866004504</v>
+      </c>
+      <c r="G492" t="n">
+        <v>0.7236749532801882</v>
+      </c>
+      <c r="H492" t="n">
+        <v>54.10988790814999</v>
+      </c>
+      <c r="I492" t="n">
+        <v>0.0781919989258012</v>
+      </c>
+      <c r="J492" t="n">
+        <v>0.07986052074119737</v>
+      </c>
+      <c r="K492" t="n">
+        <v>0.1888080134652028</v>
+      </c>
+      <c r="L492" t="n">
+        <v>29.27879969432556</v>
+      </c>
+      <c r="M492" t="n">
+        <v>64.56104183862935</v>
+      </c>
+      <c r="N492" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>2.694493829560028</v>
+      </c>
+      <c r="B493" t="n">
+        <v>3.796496485381673</v>
+      </c>
+      <c r="C493" t="n">
+        <v>1.05693587193816</v>
+      </c>
+      <c r="D493" t="n">
+        <v>1.857898081916053</v>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F493" t="n">
+        <v>2.597778252518333</v>
+      </c>
+      <c r="G493" t="n">
+        <v>0.8358301074187381</v>
+      </c>
+      <c r="H493" t="n">
+        <v>95.4076199702679</v>
+      </c>
+      <c r="I493" t="n">
+        <v>0.1561031998661258</v>
+      </c>
+      <c r="J493" t="n">
+        <v>0.1679291093009389</v>
+      </c>
+      <c r="K493" t="n">
+        <v>0.3657640272949867</v>
+      </c>
+      <c r="L493" t="n">
+        <v>91.02613948391063</v>
+      </c>
+      <c r="M493" t="n">
+        <v>68.52674761285101</v>
+      </c>
+      <c r="N493" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>5.393829541929421</v>
+      </c>
+      <c r="B494" t="n">
+        <v>5.353226493090609</v>
+      </c>
+      <c r="C494" t="n">
+        <v>0.9065327373489893</v>
+      </c>
+      <c r="D494" t="n">
+        <v>2.087637172679081</v>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F494" t="n">
+        <v>1.411364232895922</v>
+      </c>
+      <c r="G494" t="n">
+        <v>0.9915760245031451</v>
+      </c>
+      <c r="H494" t="n">
+        <v>300</v>
+      </c>
+      <c r="I494" t="n">
+        <v>8.349495626891468e-06</v>
+      </c>
+      <c r="J494" t="n">
+        <v>0.2207447040086218</v>
+      </c>
+      <c r="K494" t="n">
+        <v>0.4260560773356401</v>
+      </c>
+      <c r="L494" t="n">
+        <v>900</v>
+      </c>
+      <c r="M494" t="n">
+        <v>72.83798805590594</v>
+      </c>
+      <c r="N494" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>3.311954592883837</v>
+      </c>
+      <c r="B495" t="n">
+        <v>4.411299830372354</v>
+      </c>
+      <c r="C495" t="n">
+        <v>1.006049680565656</v>
+      </c>
+      <c r="D495" t="n">
+        <v>1.805139691352585</v>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F495" t="n">
+        <v>2.561275448458961</v>
+      </c>
+      <c r="G495" t="n">
+        <v>0.8918284800934438</v>
+      </c>
+      <c r="H495" t="n">
+        <v>137.24694601068</v>
+      </c>
+      <c r="I495" t="n">
+        <v>0.08430651066016037</v>
+      </c>
+      <c r="J495" t="n">
+        <v>0.2130681090561314</v>
+      </c>
+      <c r="K495" t="n">
+        <v>0.2271010813585932</v>
+      </c>
+      <c r="L495" t="n">
+        <v>188.3672418925852</v>
+      </c>
+      <c r="M495" t="n">
+        <v>67.33619989873594</v>
+      </c>
+      <c r="N495" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>1.172102409070624</v>
+      </c>
+      <c r="B496" t="n">
+        <v>3.02187467521733</v>
+      </c>
+      <c r="C496" t="n">
+        <v>0.963925731054</v>
+      </c>
+      <c r="D496" t="n">
+        <v>1.550776271722756</v>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F496" t="n">
+        <v>1.967690006166333</v>
+      </c>
+      <c r="G496" t="n">
+        <v>0.5757901799990718</v>
+      </c>
+      <c r="H496" t="n">
+        <v>24.64171310138613</v>
+      </c>
+      <c r="I496" t="n">
+        <v>0.2024842468440748</v>
+      </c>
+      <c r="J496" t="n">
+        <v>0.0006879519185800653</v>
+      </c>
+      <c r="K496" t="n">
+        <v>0.2023679640347141</v>
+      </c>
+      <c r="L496" t="n">
+        <v>6.072140245710248</v>
+      </c>
+      <c r="M496" t="n">
+        <v>59.90468296433112</v>
+      </c>
+      <c r="N496" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>64.45688266147386</v>
+      </c>
+      <c r="B497" t="n">
+        <v>4.023030751637459</v>
+      </c>
+      <c r="C497" t="n">
+        <v>1.22141371700522</v>
+      </c>
+      <c r="D497" t="n">
+        <v>1.555760345240316</v>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F497" t="n">
+        <v>0.2031867484488429</v>
+      </c>
+      <c r="G497" t="n">
+        <v>1.577092695563661</v>
+      </c>
+      <c r="H497" t="n">
+        <v>300</v>
+      </c>
+      <c r="I497" t="n">
+        <v>0.001274384217478275</v>
+      </c>
+      <c r="J497" t="n">
+        <v>0.00377257641723372</v>
+      </c>
+      <c r="K497" t="n">
+        <v>0.1181919461538462</v>
+      </c>
+      <c r="L497" t="n">
+        <v>900</v>
+      </c>
+      <c r="M497" t="n">
+        <v>60.08685108933967</v>
+      </c>
+      <c r="N497" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>45.24740972019904</v>
+      </c>
+      <c r="B498" t="n">
+        <v>4.713985479155564</v>
+      </c>
+      <c r="C498" t="n">
+        <v>1.163327591023864</v>
+      </c>
+      <c r="D498" t="n">
+        <v>1.761099779149601</v>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F498" t="n">
+        <v>1.755534858261764</v>
+      </c>
+      <c r="G498" t="n">
+        <v>1.454065721812178</v>
+      </c>
+      <c r="H498" t="n">
+        <v>300</v>
+      </c>
+      <c r="I498" t="n">
+        <v>0.001457268852064542</v>
+      </c>
+      <c r="J498" t="n">
+        <v>0.01897849913367455</v>
+      </c>
+      <c r="K498" t="n">
+        <v>0.1736816897639816</v>
+      </c>
+      <c r="L498" t="n">
+        <v>900</v>
+      </c>
+      <c r="M498" t="n">
+        <v>66.26825289003939</v>
+      </c>
+      <c r="N498" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>1.867106622871173</v>
+      </c>
+      <c r="B499" t="n">
+        <v>3.413676932387003</v>
+      </c>
+      <c r="C499" t="n">
+        <v>0.9507377438760414</v>
+      </c>
+      <c r="D499" t="n">
+        <v>1.693931349167598</v>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F499" t="n">
+        <v>0.2323435178373104</v>
+      </c>
+      <c r="G499" t="n">
+        <v>0.7243553822104677</v>
+      </c>
+      <c r="H499" t="n">
+        <v>43.42520039227724</v>
+      </c>
+      <c r="I499" t="n">
+        <v>0.1140166974283092</v>
+      </c>
+      <c r="J499" t="n">
+        <v>0.07134604011419182</v>
+      </c>
+      <c r="K499" t="n">
+        <v>0.114374499775047</v>
+      </c>
+      <c r="L499" t="n">
+        <v>18.85748029109435</v>
+      </c>
+      <c r="M499" t="n">
+        <v>64.48860170868731</v>
+      </c>
+      <c r="N499" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>104.8781618751609</v>
+      </c>
+      <c r="B500" t="n">
+        <v>2.860462031715405</v>
+      </c>
+      <c r="C500" t="n">
+        <v>1.297682109310205</v>
+      </c>
+      <c r="D500" t="n">
+        <v>1.291430842406279</v>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F500" t="n">
+        <v>2.376535472517857</v>
+      </c>
+      <c r="G500" t="n">
+        <v>1.840364569281783</v>
+      </c>
+      <c r="H500" t="n">
+        <v>300</v>
+      </c>
+      <c r="I500" t="n">
+        <v>0.003666310706062936</v>
+      </c>
+      <c r="J500" t="n">
+        <v>0.02705258799126642</v>
+      </c>
+      <c r="K500" t="n">
+        <v>0.03830268050847463</v>
+      </c>
+      <c r="L500" t="n">
+        <v>900</v>
+      </c>
+      <c r="M500" t="n">
+        <v>46.41120476857247</v>
+      </c>
+      <c r="N500" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>1.369358592302809</v>
+      </c>
+      <c r="B501" t="n">
+        <v>3.06386952662845</v>
+      </c>
+      <c r="C501" t="n">
+        <v>1.119046898961528</v>
+      </c>
+      <c r="D501" t="n">
+        <v>1.599228303140477</v>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F501" t="n">
+        <v>2.308380893330279</v>
+      </c>
+      <c r="G501" t="n">
+        <v>0.6382208390209148</v>
+      </c>
+      <c r="H501" t="n">
+        <v>37.69873856186529</v>
+      </c>
+      <c r="I501" t="n">
+        <v>0.2484141654535483</v>
+      </c>
+      <c r="J501" t="n">
+        <v>0.01938527317918393</v>
+      </c>
+      <c r="K501" t="n">
+        <v>0.2381927369866809</v>
+      </c>
+      <c r="L501" t="n">
+        <v>14.21194889155869</v>
+      </c>
+      <c r="M501" t="n">
+        <v>61.59895445228631</v>
+      </c>
+      <c r="N501" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>2.780010325239179</v>
+      </c>
+      <c r="B502" t="n">
+        <v>3.952435871199897</v>
+      </c>
+      <c r="C502" t="n">
+        <v>1.042529179246493</v>
+      </c>
+      <c r="D502" t="n">
+        <v>1.849994472882516</v>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F502" t="n">
+        <v>1.512262986323412</v>
+      </c>
+      <c r="G502" t="n">
+        <v>0.8452755546746478</v>
+      </c>
+      <c r="H502" t="n">
+        <v>99.95901570118849</v>
+      </c>
+      <c r="I502" t="n">
+        <v>6.025543180199211e-05</v>
+      </c>
+      <c r="J502" t="n">
+        <v>3.9932542203025e-05</v>
+      </c>
+      <c r="K502" t="n">
+        <v>0.003221440782612328</v>
+      </c>
+      <c r="L502" t="n">
+        <v>99.91804819950448</v>
+      </c>
+      <c r="M502" t="n">
+        <v>68.3540984741401</v>
+      </c>
+      <c r="N502" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>120.2596660162635</v>
+      </c>
+      <c r="B503" t="n">
+        <v>2.494601972031329</v>
+      </c>
+      <c r="C503" t="n">
+        <v>1.368860081103293</v>
+      </c>
+      <c r="D503" t="n">
+        <v>1.218873968645493</v>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F503" t="n">
+        <v>0.8832349627671627</v>
+      </c>
+      <c r="G503" t="n">
+        <v>1.963620043438931</v>
+      </c>
+      <c r="H503" t="n">
+        <v>300</v>
+      </c>
+      <c r="I503" t="n">
+        <v>0.008395857428299514</v>
+      </c>
+      <c r="J503" t="n">
+        <v>0.02327889933774829</v>
+      </c>
+      <c r="K503" t="n">
+        <v>0.1427177117647058</v>
+      </c>
+      <c r="L503" t="n">
+        <v>900</v>
+      </c>
+      <c r="M503" t="n">
+        <v>40.00363252099972</v>
+      </c>
+      <c r="N503" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>3.756174929175649</v>
+      </c>
+      <c r="B504" t="n">
+        <v>4.461612017740699</v>
+      </c>
+      <c r="C504" t="n">
+        <v>1.002802341654022</v>
+      </c>
+      <c r="D504" t="n">
+        <v>1.964967024142854</v>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F504" t="n">
+        <v>2.5933974756525</v>
+      </c>
+      <c r="G504" t="n">
+        <v>0.9200670191847102</v>
+      </c>
+      <c r="H504" t="n">
+        <v>116.3263054745049</v>
+      </c>
+      <c r="I504" t="n">
+        <v>0.03366825099847814</v>
+      </c>
+      <c r="J504" t="n">
+        <v>0.03332002462186245</v>
+      </c>
+      <c r="K504" t="n">
+        <v>0.03547816660483227</v>
+      </c>
+      <c r="L504" t="n">
+        <v>135.3180934534782</v>
+      </c>
+      <c r="M504" t="n">
+        <v>70.6915388600861</v>
+      </c>
+      <c r="N504" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>80.56384856538131</v>
+      </c>
+      <c r="B505" t="n">
+        <v>3.539569683268307</v>
+      </c>
+      <c r="C505" t="n">
+        <v>1.245542976829494</v>
+      </c>
+      <c r="D505" t="n">
+        <v>1.418862739689703</v>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F505" t="n">
+        <v>2.457790812178064</v>
+      </c>
+      <c r="G505" t="n">
+        <v>1.676870407012116</v>
+      </c>
+      <c r="H505" t="n">
+        <v>300</v>
+      </c>
+      <c r="I505" t="n">
+        <v>0.0007941280237482307</v>
+      </c>
+      <c r="J505" t="n">
+        <v>0.00420369512976615</v>
+      </c>
+      <c r="K505" t="n">
+        <v>0.05022758433734931</v>
+      </c>
+      <c r="L505" t="n">
+        <v>900</v>
+      </c>
+      <c r="M505" t="n">
+        <v>54.24413498890186</v>
+      </c>
+      <c r="N505" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>2.739924048688666</v>
+      </c>
+      <c r="B506" t="n">
+        <v>3.882335687261182</v>
+      </c>
+      <c r="C506" t="n">
+        <v>1.049061897469418</v>
+      </c>
+      <c r="D506" t="n">
+        <v>1.854985470711133</v>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F506" t="n">
+        <v>0.8679153900741831</v>
+      </c>
+      <c r="G506" t="n">
+        <v>0.8406759012375467</v>
+      </c>
+      <c r="H506" t="n">
+        <v>115.5786186246762</v>
+      </c>
+      <c r="I506" t="n">
+        <v>0.1724372555913453</v>
+      </c>
+      <c r="J506" t="n">
+        <v>0.3063982209484977</v>
+      </c>
+      <c r="K506" t="n">
+        <v>0.360893289071437</v>
+      </c>
+      <c r="L506" t="n">
+        <v>133.5841708318835</v>
+      </c>
+      <c r="M506" t="n">
+        <v>68.46334771669828</v>
+      </c>
+      <c r="N506" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>2.139433531632365</v>
+      </c>
+      <c r="B507" t="n">
+        <v>3.558473539789437</v>
+      </c>
+      <c r="C507" t="n">
+        <v>0.9174134030347252</v>
+      </c>
+      <c r="D507" t="n">
+        <v>1.688226466322584</v>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F507" t="n">
+        <v>0.5636598573441415</v>
+      </c>
+      <c r="G507" t="n">
+        <v>0.7623176997544486</v>
+      </c>
+      <c r="H507" t="n">
+        <v>56.62599178489813</v>
+      </c>
+      <c r="I507" t="n">
+        <v>0.1953455387151899</v>
+      </c>
+      <c r="J507" t="n">
+        <v>0.1356161590324564</v>
+      </c>
+      <c r="K507" t="n">
+        <v>0.187021420309615</v>
+      </c>
+      <c r="L507" t="n">
+        <v>32.06502945623351</v>
+      </c>
+      <c r="M507" t="n">
+        <v>64.32806905762341</v>
+      </c>
+      <c r="N507" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>42.39666418743859</v>
+      </c>
+      <c r="B508" t="n">
+        <v>4.88835651789987</v>
+      </c>
+      <c r="C508" t="n">
+        <v>1.170613243317069</v>
+      </c>
+      <c r="D508" t="n">
+        <v>1.779866808259099</v>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F508" t="n">
+        <v>1.624360873059975</v>
+      </c>
+      <c r="G508" t="n">
+        <v>1.432352023703897</v>
+      </c>
+      <c r="H508" t="n">
+        <v>300</v>
+      </c>
+      <c r="I508" t="n">
+        <v>0.001415324997975587</v>
+      </c>
+      <c r="J508" t="n">
+        <v>0.03344132594510607</v>
+      </c>
+      <c r="K508" t="n">
+        <v>0.03066873240997225</v>
+      </c>
+      <c r="L508" t="n">
+        <v>900</v>
+      </c>
+      <c r="M508" t="n">
+        <v>66.73217252406242</v>
+      </c>
+      <c r="N508" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>1.054274275502662</v>
+      </c>
+      <c r="B509" t="n">
+        <v>2.824080548591487</v>
+      </c>
+      <c r="C509" t="n">
+        <v>0.8653977264567886</v>
+      </c>
+      <c r="D509" t="n">
+        <v>1.588669625024965</v>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F509" t="n">
+        <v>1.242451076345642</v>
+      </c>
+      <c r="G509" t="n">
+        <v>0.5160210520096505</v>
+      </c>
+      <c r="H509" t="n">
+        <v>19.78526389839037</v>
+      </c>
+      <c r="I509" t="n">
+        <v>0.3100761896343953</v>
+      </c>
+      <c r="J509" t="n">
+        <v>7.817748778210509e-05</v>
+      </c>
+      <c r="K509" t="n">
+        <v>0.2598681084046972</v>
+      </c>
+      <c r="L509" t="n">
+        <v>2</v>
+      </c>
+      <c r="M509" t="n">
+        <v>61.24372962068158</v>
+      </c>
+      <c r="N509" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>85.32974844846812</v>
+      </c>
+      <c r="B510" t="n">
+        <v>3.435703532007436</v>
+      </c>
+      <c r="C510" t="n">
+        <v>1.244040043074401</v>
+      </c>
+      <c r="D510" t="n">
+        <v>1.386941554786441</v>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F510" t="n">
+        <v>1.406832717443769</v>
+      </c>
+      <c r="G510" t="n">
+        <v>1.712168698818186</v>
+      </c>
+      <c r="H510" t="n">
+        <v>300</v>
+      </c>
+      <c r="I510" t="n">
+        <v>0.001272206585879898</v>
+      </c>
+      <c r="J510" t="n">
+        <v>0.01208780662376985</v>
+      </c>
+      <c r="K510" t="n">
+        <v>0.1193394045454546</v>
+      </c>
+      <c r="L510" t="n">
+        <v>900</v>
+      </c>
+      <c r="M510" t="n">
+        <v>52.56284301562791</v>
+      </c>
+      <c r="N510" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>76.73745100341401</v>
+      </c>
+      <c r="B511" t="n">
+        <v>3.66294133752087</v>
+      </c>
+      <c r="C511" t="n">
+        <v>1.244847051593745</v>
+      </c>
+      <c r="D511" t="n">
+        <v>1.444912627245846</v>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F511" t="n">
+        <v>0.2683232982552465</v>
+      </c>
+      <c r="G511" t="n">
+        <v>1.655819203818406</v>
+      </c>
+      <c r="H511" t="n">
+        <v>300</v>
+      </c>
+      <c r="I511" t="n">
+        <v>0.001255628336079062</v>
+      </c>
+      <c r="J511" t="n">
+        <v>0.05822974705403205</v>
+      </c>
+      <c r="K511" t="n">
+        <v>0.1390352904405653</v>
+      </c>
+      <c r="L511" t="n">
+        <v>900</v>
+      </c>
+      <c r="M511" t="n">
+        <v>55.51151015629474</v>
+      </c>
+      <c r="N511" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>2.458005230181013</v>
+      </c>
+      <c r="B512" t="n">
+        <v>3.687195753749584</v>
+      </c>
+      <c r="C512" t="n">
+        <v>0.9730546686120645</v>
+      </c>
+      <c r="D512" t="n">
+        <v>1.822932121133382</v>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F512" t="n">
+        <v>2.059803785198214</v>
+      </c>
+      <c r="G512" t="n">
+        <v>0.8088775945090896</v>
+      </c>
+      <c r="H512" t="n">
+        <v>81.38809450026515</v>
+      </c>
+      <c r="I512" t="n">
+        <v>0.1266966456113825</v>
+      </c>
+      <c r="J512" t="n">
+        <v>0.1267430630885474</v>
+      </c>
+      <c r="K512" t="n">
+        <v>0.1251049341230293</v>
+      </c>
+      <c r="L512" t="n">
+        <v>66.24021926384091</v>
+      </c>
+      <c r="M512" t="n">
+        <v>67.74794667351645</v>
+      </c>
+      <c r="N512" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>9.670746890628585</v>
+      </c>
+      <c r="B513" t="n">
+        <v>5.50909791777884</v>
+      </c>
+      <c r="C513" t="n">
+        <v>1.042146156932455</v>
+      </c>
+      <c r="D513" t="n">
+        <v>2.128334966508864</v>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F513" t="n">
+        <v>0.7088000133850926</v>
+      </c>
+      <c r="G513" t="n">
+        <v>1.112784737283952</v>
+      </c>
+      <c r="H513" t="n">
+        <v>300</v>
+      </c>
+      <c r="I513" t="n">
+        <v>0.03455875408842068</v>
+      </c>
+      <c r="J513" t="n">
+        <v>0.1087559617221244</v>
+      </c>
+      <c r="K513" t="n">
+        <v>0.1131201902707104</v>
+      </c>
+      <c r="L513" t="n">
+        <v>900</v>
+      </c>
+      <c r="M513" t="n">
+        <v>73.48531644695755</v>
+      </c>
+      <c r="N513" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>1.430561221886399</v>
+      </c>
+      <c r="B514" t="n">
+        <v>3.059429110951818</v>
+      </c>
+      <c r="C514" t="n">
+        <v>1.129932479479988</v>
+      </c>
+      <c r="D514" t="n">
+        <v>1.637955785585811</v>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F514" t="n">
+        <v>2.511591811838096</v>
+      </c>
+      <c r="G514" t="n">
+        <v>0.6527094128824259</v>
+      </c>
+      <c r="H514" t="n">
+        <v>43.21410187789527</v>
+      </c>
+      <c r="I514" t="n">
+        <v>0.2667514553997322</v>
+      </c>
+      <c r="J514" t="n">
+        <v>0.2294250207264469</v>
+      </c>
+      <c r="K514" t="n">
+        <v>0.2650701763853276</v>
+      </c>
+      <c r="L514" t="n">
+        <v>18.67458601113111</v>
+      </c>
+      <c r="M514" t="n">
+        <v>62.84160537891896</v>
+      </c>
+      <c r="N514" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>1.646092345214876</v>
+      </c>
+      <c r="B515" t="n">
+        <v>3.214592140154562</v>
+      </c>
+      <c r="C515" t="n">
+        <v>1.055533149462352</v>
+      </c>
+      <c r="D515" t="n">
+        <v>1.687463678643857</v>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F515" t="n">
+        <v>2.398559311537073</v>
+      </c>
+      <c r="G515" t="n">
+        <v>0.6932470397172596</v>
+      </c>
+      <c r="H515" t="n">
+        <v>46.54697221695962</v>
+      </c>
+      <c r="I515" t="n">
+        <v>0.2499820710033539</v>
+      </c>
+      <c r="J515" t="n">
+        <v>0.1875013767478041</v>
+      </c>
+      <c r="K515" t="n">
+        <v>0.2499696296838554</v>
+      </c>
+      <c r="L515" t="n">
+        <v>21.66620622566411</v>
+      </c>
+      <c r="M515" t="n">
+        <v>64.30648496562002</v>
+      </c>
+      <c r="N515" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>6.496573109436851</v>
+      </c>
+      <c r="B516" t="n">
+        <v>5.602517722516493</v>
+      </c>
+      <c r="C516" t="n">
+        <v>0.9262169538513554</v>
+      </c>
+      <c r="D516" t="n">
+        <v>1.990693136481048</v>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F516" t="n">
+        <v>1.493102398187263</v>
+      </c>
+      <c r="G516" t="n">
+        <v>1.034532408876113</v>
+      </c>
+      <c r="H516" t="n">
+        <v>225.4349369553356</v>
+      </c>
+      <c r="I516" t="n">
+        <v>0.01767251117741431</v>
+      </c>
+      <c r="J516" t="n">
+        <v>0.03379353982911415</v>
+      </c>
+      <c r="K516" t="n">
+        <v>0.2105550580271944</v>
+      </c>
+      <c r="L516" t="n">
+        <v>508.2091080005615</v>
+      </c>
+      <c r="M516" t="n">
+        <v>71.16837961682633</v>
+      </c>
+      <c r="N516" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>10.96645652808985</v>
+      </c>
+      <c r="B517" t="n">
+        <v>5.783731521554386</v>
+      </c>
+      <c r="C517" t="n">
+        <v>1.048006166024926</v>
+      </c>
+      <c r="D517" t="n">
+        <v>2.072162170703169</v>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F517" t="n">
+        <v>1.930694944855603</v>
+      </c>
+      <c r="G517" t="n">
+        <v>1.138166437086389</v>
+      </c>
+      <c r="H517" t="n">
+        <v>300</v>
+      </c>
+      <c r="I517" t="n">
+        <v>0.03218348784489189</v>
+      </c>
+      <c r="J517" t="n">
+        <v>0.03132638227762363</v>
+      </c>
+      <c r="K517" t="n">
+        <v>0.06862274241129807</v>
+      </c>
+      <c r="L517" t="n">
+        <v>900</v>
+      </c>
+      <c r="M517" t="n">
+        <v>72.5839858511269</v>
+      </c>
+      <c r="N517" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>1.661528615826365</v>
+      </c>
+      <c r="B518" t="n">
+        <v>3.23385327525809</v>
+      </c>
+      <c r="C518" t="n">
+        <v>1.045914153717406</v>
+      </c>
+      <c r="D518" t="n">
+        <v>1.685534047014921</v>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F518" t="n">
+        <v>2.550273301960657</v>
+      </c>
+      <c r="G518" t="n">
+        <v>0.6965024835112426</v>
+      </c>
+      <c r="H518" t="n">
+        <v>33.62313279773822</v>
+      </c>
+      <c r="I518" t="n">
+        <v>0.1135167552600268</v>
+      </c>
+      <c r="J518" t="n">
+        <v>0.001367954261444759</v>
+      </c>
+      <c r="K518" t="n">
+        <v>0.1619903426387909</v>
+      </c>
+      <c r="L518" t="n">
+        <v>11.30515059134339</v>
+      </c>
+      <c r="M518" t="n">
+        <v>64.25175642585619</v>
+      </c>
+      <c r="N518" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>4.866045989536602</v>
+      </c>
+      <c r="B519" t="n">
+        <v>4.729111941312667</v>
+      </c>
+      <c r="C519" t="n">
+        <v>0.9276681242903005</v>
+      </c>
+      <c r="D519" t="n">
+        <v>2.075593883823478</v>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F519" t="n">
+        <v>1.630699033441587</v>
+      </c>
+      <c r="G519" t="n">
+        <v>0.971385741139729</v>
+      </c>
+      <c r="H519" t="n">
+        <v>157.8397842957357</v>
+      </c>
+      <c r="I519" t="n">
+        <v>0.003233821891124089</v>
+      </c>
+      <c r="J519" t="n">
+        <v>0.1563875932965832</v>
+      </c>
+      <c r="K519" t="n">
+        <v>0.2966972860488798</v>
+      </c>
+      <c r="L519" t="n">
+        <v>249.1339750652438</v>
+      </c>
+      <c r="M519" t="n">
+        <v>72.64069986934082</v>
+      </c>
+      <c r="N519" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>112.6790449654096</v>
+      </c>
+      <c r="B520" t="n">
+        <v>2.662429381542012</v>
+      </c>
+      <c r="C520" t="n">
+        <v>1.335116786187613</v>
+      </c>
+      <c r="D520" t="n">
+        <v>1.252894590662004</v>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F520" t="n">
+        <v>1.146884328534948</v>
+      </c>
+      <c r="G520" t="n">
+        <v>1.903038440056087</v>
+      </c>
+      <c r="H520" t="n">
+        <v>300</v>
+      </c>
+      <c r="I520" t="n">
+        <v>0.01227970881958429</v>
+      </c>
+      <c r="J520" t="n">
+        <v>0.03260715480984344</v>
+      </c>
+      <c r="K520" t="n">
+        <v>0.1017297727493918</v>
+      </c>
+      <c r="L520" t="n">
+        <v>900</v>
+      </c>
+      <c r="M520" t="n">
+        <v>43.25930410754661</v>
+      </c>
+      <c r="N520" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>93.82375046969833</v>
+      </c>
+      <c r="B521" t="n">
+        <v>3.197484629405101</v>
+      </c>
+      <c r="C521" t="n">
+        <v>1.244003044089186</v>
+      </c>
+      <c r="D521" t="n">
+        <v>1.345074287632398</v>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F521" t="n">
+        <v>2.751345505639425</v>
+      </c>
+      <c r="G521" t="n">
+        <v>1.764349569204475</v>
+      </c>
+      <c r="H521" t="n">
+        <v>300</v>
+      </c>
+      <c r="I521" t="n">
+        <v>0.001457950851276757</v>
+      </c>
+      <c r="J521" t="n">
+        <v>0.01788485028248588</v>
+      </c>
+      <c r="K521" t="n">
+        <v>0.09569739736842098</v>
+      </c>
+      <c r="L521" t="n">
+        <v>900</v>
+      </c>
+      <c r="M521" t="n">
+        <v>50.10301852215736</v>
+      </c>
+      <c r="N521" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>0.9600826207866701</v>
+      </c>
+      <c r="B522" t="n">
+        <v>2.065815120483533</v>
+      </c>
+      <c r="C522" t="n">
+        <v>0.9847957716946409</v>
+      </c>
+      <c r="D522" t="n">
+        <v>1.545708080900039</v>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F522" t="n">
+        <v>2.47179097757815</v>
+      </c>
+      <c r="G522" t="n">
+        <v>0.4370362877365621</v>
+      </c>
+      <c r="H522" t="n">
+        <v>10.33277349028804</v>
+      </c>
+      <c r="I522" t="n">
+        <v>0.2603619875852878</v>
+      </c>
+      <c r="J522" t="n">
+        <v>1.673835562621129e-05</v>
+      </c>
+      <c r="K522" t="n">
+        <v>0.01161571375443093</v>
+      </c>
+      <c r="L522" t="n">
+        <v>2</v>
+      </c>
+      <c r="M522" t="n">
+        <v>59.71746093978446</v>
+      </c>
+      <c r="N522" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>86.97813635779855</v>
+      </c>
+      <c r="B523" t="n">
+        <v>3.38907601158204</v>
+      </c>
+      <c r="C523" t="n">
+        <v>1.236309294565872</v>
+      </c>
+      <c r="D523" t="n">
+        <v>1.379973362270614</v>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F523" t="n">
+        <v>1.777679629201211</v>
+      </c>
+      <c r="G523" t="n">
+        <v>1.727301120316017</v>
+      </c>
+      <c r="H523" t="n">
+        <v>300</v>
+      </c>
+      <c r="I523" t="n">
+        <v>0.001033775901905121</v>
+      </c>
+      <c r="J523" t="n">
+        <v>0.07522227486772493</v>
+      </c>
+      <c r="K523" t="n">
+        <v>0.07484434591836742</v>
+      </c>
+      <c r="L523" t="n">
+        <v>900</v>
+      </c>
+      <c r="M523" t="n">
+        <v>52.1748903505389</v>
+      </c>
+      <c r="N523" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>0.9713998317403202</v>
+      </c>
+      <c r="B524" t="n">
+        <v>2.218058413023681</v>
+      </c>
+      <c r="C524" t="n">
+        <v>0.9398278221597725</v>
+      </c>
+      <c r="D524" t="n">
+        <v>1.564935557162888</v>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F524" t="n">
+        <v>2.491451617122364</v>
+      </c>
+      <c r="G524" t="n">
+        <v>0.4490838005584674</v>
+      </c>
+      <c r="H524" t="n">
+        <v>10.93177781744387</v>
+      </c>
+      <c r="I524" t="n">
+        <v>0.0858665036341687</v>
+      </c>
+      <c r="J524" t="n">
+        <v>2.164973104240575e-05</v>
+      </c>
+      <c r="K524" t="n">
+        <v>0.04310217999783622</v>
+      </c>
+      <c r="L524" t="n">
+        <v>2</v>
+      </c>
+      <c r="M524" t="n">
+        <v>60.41727800267394</v>
+      </c>
+      <c r="N524" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>103.4688657585934</v>
+      </c>
+      <c r="B525" t="n">
+        <v>2.89942291142864</v>
+      </c>
+      <c r="C525" t="n">
+        <v>1.299339147884313</v>
+      </c>
+      <c r="D525" t="n">
+        <v>1.297153738298976</v>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F525" t="n">
+        <v>0.6125084476498358</v>
+      </c>
+      <c r="G525" t="n">
+        <v>1.826762724371897</v>
+      </c>
+      <c r="H525" t="n">
+        <v>300</v>
+      </c>
+      <c r="I525" t="n">
+        <v>0.002889945860131582</v>
+      </c>
+      <c r="J525" t="n">
+        <v>0.01119199059539921</v>
+      </c>
+      <c r="K525" t="n">
+        <v>0.10871085</v>
+      </c>
+      <c r="L525" t="n">
+        <v>900</v>
+      </c>
+      <c r="M525" t="n">
+        <v>46.83973331294516</v>
+      </c>
+      <c r="N525" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>12.36471801973238</v>
+      </c>
+      <c r="B526" t="n">
+        <v>6.255211228296792</v>
+      </c>
+      <c r="C526" t="n">
+        <v>1.034260420785008</v>
+      </c>
+      <c r="D526" t="n">
+        <v>2.150738561055928</v>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F526" t="n">
+        <v>2.113333318002049</v>
+      </c>
+      <c r="G526" t="n">
+        <v>1.155893872261746</v>
+      </c>
+      <c r="H526" t="n">
+        <v>300</v>
+      </c>
+      <c r="I526" t="n">
+        <v>6.444298628505152e-05</v>
+      </c>
+      <c r="J526" t="n">
+        <v>0.0006099647354050886</v>
+      </c>
+      <c r="K526" t="n">
+        <v>0.1496650087692766</v>
+      </c>
+      <c r="L526" t="n">
+        <v>900</v>
+      </c>
+      <c r="M526" t="n">
+        <v>73.82951289151157</v>
+      </c>
+      <c r="N526" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>11.61518608226173</v>
+      </c>
+      <c r="B527" t="n">
+        <v>6.050259348384622</v>
+      </c>
+      <c r="C527" t="n">
+        <v>1.039514907781438</v>
+      </c>
+      <c r="D527" t="n">
+        <v>2.07972160566731</v>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F527" t="n">
+        <v>2.651312337183457</v>
+      </c>
+      <c r="G527" t="n">
+        <v>1.147300716387542</v>
+      </c>
+      <c r="H527" t="n">
+        <v>300</v>
+      </c>
+      <c r="I527" t="n">
+        <v>0.01343203748542465</v>
+      </c>
+      <c r="J527" t="n">
+        <v>0.01325107887062449</v>
+      </c>
+      <c r="K527" t="n">
+        <v>0.2759225247792563</v>
+      </c>
+      <c r="L527" t="n">
+        <v>900</v>
+      </c>
+      <c r="M527" t="n">
+        <v>72.70862281161527</v>
+      </c>
+      <c r="N527" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>0.9554114282626111</v>
+      </c>
+      <c r="B528" t="n">
+        <v>2.046765001720655</v>
+      </c>
+      <c r="C528" t="n">
+        <v>0.983369714987721</v>
+      </c>
+      <c r="D528" t="n">
+        <v>1.534390976798604</v>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F528" t="n">
+        <v>0.3650514446090678</v>
+      </c>
+      <c r="G528" t="n">
+        <v>0.4315895075916969</v>
+      </c>
+      <c r="H528" t="n">
+        <v>9.855051596956164</v>
+      </c>
+      <c r="I528" t="n">
+        <v>0.242108434881306</v>
+      </c>
+      <c r="J528" t="n">
+        <v>1.300648252078318e-05</v>
+      </c>
+      <c r="K528" t="n">
+        <v>0.1735522821500911</v>
+      </c>
+      <c r="L528" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M528" t="n">
+        <v>59.29199719618873</v>
+      </c>
+      <c r="N528" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>17.87401910446684</v>
+      </c>
+      <c r="B529" t="n">
+        <v>5.808553796375321</v>
+      </c>
+      <c r="C529" t="n">
+        <v>1.064870086454533</v>
+      </c>
+      <c r="D529" t="n">
+        <v>2.030612778795911</v>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F529" t="n">
+        <v>1.985762448177581</v>
+      </c>
+      <c r="G529" t="n">
+        <v>1.232445884536348</v>
+      </c>
+      <c r="H529" t="n">
+        <v>300</v>
+      </c>
+      <c r="I529" t="n">
+        <v>0.0003079957028105929</v>
+      </c>
+      <c r="J529" t="n">
+        <v>0.0009620985752973876</v>
+      </c>
+      <c r="K529" t="n">
+        <v>0.2351712599566016</v>
+      </c>
+      <c r="L529" t="n">
+        <v>900</v>
+      </c>
+      <c r="M529" t="n">
+        <v>71.87913874737504</v>
+      </c>
+      <c r="N529" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>69.2395244676551</v>
+      </c>
+      <c r="B530" t="n">
+        <v>3.868178287609292</v>
+      </c>
+      <c r="C530" t="n">
+        <v>1.235127802991314</v>
+      </c>
+      <c r="D530" t="n">
+        <v>1.509075199973645</v>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F530" t="n">
+        <v>1.343215901729221</v>
+      </c>
+      <c r="G530" t="n">
+        <v>1.610499099505086</v>
+      </c>
+      <c r="H530" t="n">
+        <v>300</v>
+      </c>
+      <c r="I530" t="n">
+        <v>0.001824534021286128</v>
+      </c>
+      <c r="J530" t="n">
+        <v>0.008725956510291955</v>
+      </c>
+      <c r="K530" t="n">
+        <v>0.00674443646379852</v>
+      </c>
+      <c r="L530" t="n">
+        <v>900</v>
+      </c>
+      <c r="M530" t="n">
+        <v>58.30116204861074</v>
+      </c>
+      <c r="N530" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>2.677109615726066</v>
+      </c>
+      <c r="B531" t="n">
+        <v>3.721813446820261</v>
+      </c>
+      <c r="C531" t="n">
+        <v>1.066657775638364</v>
+      </c>
+      <c r="D531" t="n">
+        <v>1.842407941726541</v>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F531" t="n">
+        <v>0.1813728527096473</v>
+      </c>
+      <c r="G531" t="n">
+        <v>0.8357583398096353</v>
+      </c>
+      <c r="H531" t="n">
+        <v>67.77057706679065</v>
+      </c>
+      <c r="I531" t="n">
+        <v>0.002904627652249969</v>
+      </c>
+      <c r="J531" t="n">
+        <v>0.003050361159088411</v>
+      </c>
+      <c r="K531" t="n">
+        <v>0.1094693965076844</v>
+      </c>
+      <c r="L531" t="n">
+        <v>45.9285111596581</v>
+      </c>
+      <c r="M531" t="n">
+        <v>68.18654428142574</v>
+      </c>
+      <c r="N531" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>2.512046115882395</v>
+      </c>
+      <c r="B532" t="n">
+        <v>3.691129111267043</v>
+      </c>
+      <c r="C532" t="n">
+        <v>0.991512113149955</v>
+      </c>
+      <c r="D532" t="n">
+        <v>1.825630375319285</v>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F532" t="n">
+        <v>2.518899522225883</v>
+      </c>
+      <c r="G532" t="n">
+        <v>0.8163782733938869</v>
+      </c>
+      <c r="H532" t="n">
+        <v>83.23455661575645</v>
+      </c>
+      <c r="I532" t="n">
+        <v>0.1692419065175435</v>
+      </c>
+      <c r="J532" t="n">
+        <v>0.1692231684454194</v>
+      </c>
+      <c r="K532" t="n">
+        <v>0.1703462848709557</v>
+      </c>
+      <c r="L532" t="n">
+        <v>69.27991415021566</v>
+      </c>
+      <c r="M532" t="n">
+        <v>67.80945340639749</v>
+      </c>
+      <c r="N532" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>1.297582643400432</v>
+      </c>
+      <c r="B533" t="n">
+        <v>3.064916300794603</v>
+      </c>
+      <c r="C533" t="n">
+        <v>1.091162385168046</v>
+      </c>
+      <c r="D533" t="n">
+        <v>1.521986822819532</v>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F533" t="n">
+        <v>0.2976049343171804</v>
+      </c>
+      <c r="G533" t="n">
+        <v>0.6191781051462701</v>
+      </c>
+      <c r="H533" t="n">
+        <v>28.63361289879154</v>
+      </c>
+      <c r="I533" t="n">
+        <v>0.2921944263695806</v>
+      </c>
+      <c r="J533" t="n">
+        <v>0.004017536102141034</v>
+      </c>
+      <c r="K533" t="n">
+        <v>0.292318847958019</v>
+      </c>
+      <c r="L533" t="n">
+        <v>8.198837876378411</v>
+      </c>
+      <c r="M533" t="n">
+        <v>58.81347397810136</v>
+      </c>
+      <c r="N533" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>5.445998831981882</v>
+      </c>
+      <c r="B534" t="n">
+        <v>5.250818089824874</v>
+      </c>
+      <c r="C534" t="n">
+        <v>0.9163849267584311</v>
+      </c>
+      <c r="D534" t="n">
+        <v>2.065472757025991</v>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F534" t="n">
+        <v>1.470218091714864</v>
+      </c>
+      <c r="G534" t="n">
+        <v>0.9964272062074208</v>
+      </c>
+      <c r="H534" t="n">
+        <v>270.4730731801618</v>
+      </c>
+      <c r="I534" t="n">
+        <v>0.0001448742466580999</v>
+      </c>
+      <c r="J534" t="n">
+        <v>5.975599721053104e-05</v>
+      </c>
+      <c r="K534" t="n">
+        <v>0.3395056276873866</v>
+      </c>
+      <c r="L534" t="n">
+        <v>731.5568331552116</v>
+      </c>
+      <c r="M534" t="n">
+        <v>72.47279040768417</v>
+      </c>
+      <c r="N534" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>22.70412702263305</v>
+      </c>
+      <c r="B535" t="n">
+        <v>5.873122182999658</v>
+      </c>
+      <c r="C535" t="n">
+        <v>1.056177745462659</v>
+      </c>
+      <c r="D535" t="n">
+        <v>2.03570922555487</v>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F535" t="n">
+        <v>0.5755386087699793</v>
+      </c>
+      <c r="G535" t="n">
+        <v>1.280616881483465</v>
+      </c>
+      <c r="H535" t="n">
+        <v>300</v>
+      </c>
+      <c r="I535" t="n">
+        <v>0.0004015212551842229</v>
+      </c>
+      <c r="J535" t="n">
+        <v>0.04685027985746437</v>
+      </c>
+      <c r="K535" t="n">
+        <v>0.04303292437862083</v>
+      </c>
+      <c r="L535" t="n">
+        <v>900</v>
+      </c>
+      <c r="M535" t="n">
+        <v>71.96745250143888</v>
+      </c>
+      <c r="N535" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>0.9588922096441401</v>
+      </c>
+      <c r="B536" t="n">
+        <v>2.060748559960265</v>
+      </c>
+      <c r="C536" t="n">
+        <v>0.984413571154247</v>
+      </c>
+      <c r="D536" t="n">
+        <v>1.543002851687723</v>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F536" t="n">
+        <v>1.925702199045242</v>
+      </c>
+      <c r="G536" t="n">
+        <v>0.4358251259558549</v>
+      </c>
+      <c r="H536" t="n">
+        <v>11.34560970603919</v>
+      </c>
+      <c r="I536" t="n">
+        <v>0.3101615147104039</v>
+      </c>
+      <c r="J536" t="n">
+        <v>3.447114885779534e-05</v>
+      </c>
+      <c r="K536" t="n">
+        <v>0.006169734828489482</v>
+      </c>
+      <c r="L536" t="n">
+        <v>2</v>
+      </c>
+      <c r="M536" t="n">
+        <v>59.6166978391019</v>
+      </c>
+      <c r="N536" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>82.94860626206369</v>
+      </c>
+      <c r="B537" t="n">
+        <v>3.463527255504107</v>
+      </c>
+      <c r="C537" t="n">
+        <v>1.243345565322563</v>
+      </c>
+      <c r="D537" t="n">
+        <v>1.405055875904587</v>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F537" t="n">
+        <v>1.609390024443531</v>
+      </c>
+      <c r="G537" t="n">
+        <v>1.700315444167519</v>
+      </c>
+      <c r="H537" t="n">
+        <v>300</v>
+      </c>
+      <c r="I537" t="n">
+        <v>0.002454601214324392</v>
+      </c>
+      <c r="J537" t="n">
+        <v>0.003371235961123209</v>
+      </c>
+      <c r="K537" t="n">
+        <v>0.01816688995433802</v>
+      </c>
+      <c r="L537" t="n">
+        <v>900</v>
+      </c>
+      <c r="M537" t="n">
+        <v>53.5354248324724</v>
+      </c>
+      <c r="N537" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>111.6693824290982</v>
+      </c>
+      <c r="B538" t="n">
+        <v>2.686501827754601</v>
+      </c>
+      <c r="C538" t="n">
+        <v>1.332250977256174</v>
+      </c>
+      <c r="D538" t="n">
+        <v>1.257598860050388</v>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F538" t="n">
+        <v>1.22788263137858</v>
+      </c>
+      <c r="G538" t="n">
+        <v>1.893728072937766</v>
+      </c>
+      <c r="H538" t="n">
+        <v>300</v>
+      </c>
+      <c r="I538" t="n">
+        <v>0.00228234565652774</v>
+      </c>
+      <c r="J538" t="n">
+        <v>0.02087494501607712</v>
+      </c>
+      <c r="K538" t="n">
+        <v>0.05553510689655172</v>
+      </c>
+      <c r="L538" t="n">
+        <v>900</v>
+      </c>
+      <c r="M538" t="n">
+        <v>43.67145471068052</v>
+      </c>
+      <c r="N538" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>36.06814389364148</v>
+      </c>
+      <c r="B539" t="n">
+        <v>5.251529783338927</v>
+      </c>
+      <c r="C539" t="n">
+        <v>1.156840903448447</v>
+      </c>
+      <c r="D539" t="n">
+        <v>1.852459829359084</v>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F539" t="n">
+        <v>1.901829735482393</v>
+      </c>
+      <c r="G539" t="n">
+        <v>1.389317394748421</v>
+      </c>
+      <c r="H539" t="n">
+        <v>300</v>
+      </c>
+      <c r="I539" t="n">
+        <v>0.0002024954885777586</v>
+      </c>
+      <c r="J539" t="n">
+        <v>0.002586475497702856</v>
+      </c>
+      <c r="K539" t="n">
+        <v>0.1156511718831508</v>
+      </c>
+      <c r="L539" t="n">
+        <v>900</v>
+      </c>
+      <c r="M539" t="n">
+        <v>68.40815975756682</v>
+      </c>
+      <c r="N539" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>76.42041593179857</v>
+      </c>
+      <c r="B540" t="n">
+        <v>3.66091581205858</v>
+      </c>
+      <c r="C540" t="n">
+        <v>1.249509552568532</v>
+      </c>
+      <c r="D540" t="n">
+        <v>1.447738910199149</v>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F540" t="n">
+        <v>2.852149551426974</v>
+      </c>
+      <c r="G540" t="n">
+        <v>1.655364844976837</v>
+      </c>
+      <c r="H540" t="n">
+        <v>300</v>
+      </c>
+      <c r="I540" t="n">
+        <v>0.003351510589318596</v>
+      </c>
+      <c r="J540" t="n">
+        <v>0.009056359571788408</v>
+      </c>
+      <c r="K540" t="n">
+        <v>0.01284831422018362</v>
+      </c>
+      <c r="L540" t="n">
+        <v>900</v>
+      </c>
+      <c r="M540" t="n">
+        <v>55.64389364327928</v>
+      </c>
+      <c r="N540" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>2.657641411214601</v>
+      </c>
+      <c r="B541" t="n">
+        <v>3.74003219009068</v>
+      </c>
+      <c r="C541" t="n">
+        <v>1.057710273377926</v>
+      </c>
+      <c r="D541" t="n">
+        <v>1.854373059751776</v>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F541" t="n">
+        <v>0.3507003734930745</v>
+      </c>
+      <c r="G541" t="n">
+        <v>0.8320184967205136</v>
+      </c>
+      <c r="H541" t="n">
+        <v>77.41265596380825</v>
+      </c>
+      <c r="I541" t="n">
+        <v>0.001455719158926949</v>
+      </c>
+      <c r="J541" t="n">
+        <v>0.001569558503265012</v>
+      </c>
+      <c r="K541" t="n">
+        <v>0.2701282151772955</v>
+      </c>
+      <c r="L541" t="n">
+        <v>59.92719303370937</v>
+      </c>
+      <c r="M541" t="n">
+        <v>68.44998396839387</v>
+      </c>
+      <c r="N541" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>1.066490029155327</v>
+      </c>
+      <c r="B542" t="n">
+        <v>2.862175133912937</v>
+      </c>
+      <c r="C542" t="n">
+        <v>0.8717503291647373</v>
+      </c>
+      <c r="D542" t="n">
+        <v>1.586253119800973</v>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F542" t="n">
+        <v>2.914358129599223</v>
+      </c>
+      <c r="G542" t="n">
+        <v>0.5239295750589393</v>
+      </c>
+      <c r="H542" t="n">
+        <v>18.12129775482498</v>
+      </c>
+      <c r="I542" t="n">
+        <v>0.3351063220701391</v>
+      </c>
+      <c r="J542" t="n">
+        <v>0.04023682257744388</v>
+      </c>
+      <c r="K542" t="n">
+        <v>0.1780764828216429</v>
+      </c>
+      <c r="L542" t="n">
+        <v>2</v>
+      </c>
+      <c r="M542" t="n">
+        <v>61.1613811731013</v>
+      </c>
+      <c r="N542" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>62.14807755577677</v>
+      </c>
+      <c r="B543" t="n">
+        <v>4.068194905951555</v>
+      </c>
+      <c r="C543" t="n">
+        <v>1.202965728788792</v>
+      </c>
+      <c r="D543" t="n">
+        <v>1.584667967349263</v>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F543" t="n">
+        <v>0.01049247129478392</v>
+      </c>
+      <c r="G543" t="n">
+        <v>1.563600412506208</v>
+      </c>
+      <c r="H543" t="n">
+        <v>300</v>
+      </c>
+      <c r="I543" t="n">
+        <v>0.001259607111611216</v>
+      </c>
+      <c r="J543" t="n">
+        <v>0.00561804771241825</v>
+      </c>
+      <c r="K543" t="n">
+        <v>0.02888273979591827</v>
+      </c>
+      <c r="L543" t="n">
+        <v>900</v>
+      </c>
+      <c r="M543" t="n">
+        <v>61.10714702189723</v>
+      </c>
+      <c r="N543" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>11.69644399634153</v>
+      </c>
+      <c r="B544" t="n">
+        <v>6.127188227815892</v>
+      </c>
+      <c r="C544" t="n">
+        <v>1.033268019918524</v>
+      </c>
+      <c r="D544" t="n">
+        <v>2.108442863100367</v>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F544" t="n">
+        <v>0.1232628067262356</v>
+      </c>
+      <c r="G544" t="n">
+        <v>1.147176745976767</v>
+      </c>
+      <c r="H544" t="n">
+        <v>300</v>
+      </c>
+      <c r="I544" t="n">
+        <v>4.975897535275386e-05</v>
+      </c>
+      <c r="J544" t="n">
+        <v>0.01746425376841521</v>
+      </c>
+      <c r="K544" t="n">
+        <v>0.2542616675121988</v>
+      </c>
+      <c r="L544" t="n">
+        <v>900</v>
+      </c>
+      <c r="M544" t="n">
+        <v>73.17257216517754</v>
+      </c>
+      <c r="N544" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>83.8913278123371</v>
+      </c>
+      <c r="B545" t="n">
+        <v>3.450165675396962</v>
+      </c>
+      <c r="C545" t="n">
+        <v>1.245053316482051</v>
+      </c>
+      <c r="D545" t="n">
+        <v>1.396764143657884</v>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F545" t="n">
+        <v>0.907909022903395</v>
+      </c>
+      <c r="G545" t="n">
+        <v>1.703935190895869</v>
+      </c>
+      <c r="H545" t="n">
+        <v>300</v>
+      </c>
+      <c r="I545" t="n">
+        <v>0.003250431486178096</v>
+      </c>
+      <c r="J545" t="n">
+        <v>0.01359608716814165</v>
+      </c>
+      <c r="K545" t="n">
+        <v>0.05366054999999992</v>
+      </c>
+      <c r="L545" t="n">
+        <v>900</v>
+      </c>
+      <c r="M545" t="n">
+        <v>53.09648401414668</v>
+      </c>
+      <c r="N545" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>1.166138873156602</v>
+      </c>
+      <c r="B546" t="n">
+        <v>3.015159828028708</v>
+      </c>
+      <c r="C546" t="n">
+        <v>0.9583431866953538</v>
+      </c>
+      <c r="D546" t="n">
+        <v>1.552362325703957</v>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F546" t="n">
+        <v>1.915648329690507</v>
+      </c>
+      <c r="G546" t="n">
+        <v>0.5735641952843092</v>
+      </c>
+      <c r="H546" t="n">
+        <v>23.65894971544234</v>
+      </c>
+      <c r="I546" t="n">
+        <v>0.2459857243201177</v>
+      </c>
+      <c r="J546" t="n">
+        <v>0.006289023747175937</v>
+      </c>
+      <c r="K546" t="n">
+        <v>0.009785627510202399</v>
+      </c>
+      <c r="L546" t="n">
+        <v>5.597459016378293</v>
+      </c>
+      <c r="M546" t="n">
+        <v>59.96286095390002</v>
+      </c>
+      <c r="N546" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>29.27804830015902</v>
+      </c>
+      <c r="B547" t="n">
+        <v>5.51536087212602</v>
+      </c>
+      <c r="C547" t="n">
+        <v>1.152213675356099</v>
+      </c>
+      <c r="D547" t="n">
+        <v>1.927358060245367</v>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F547" t="n">
+        <v>2.598249560232469</v>
+      </c>
+      <c r="G547" t="n">
+        <v>1.336288102627068</v>
+      </c>
+      <c r="H547" t="n">
+        <v>300</v>
+      </c>
+      <c r="I547" t="n">
+        <v>0.004669461214369064</v>
+      </c>
+      <c r="J547" t="n">
+        <v>0.004039576859181104</v>
+      </c>
+      <c r="K547" t="n">
+        <v>0.09830019625741671</v>
+      </c>
+      <c r="L547" t="n">
+        <v>900</v>
+      </c>
+      <c r="M547" t="n">
+        <v>69.96586058642912</v>
+      </c>
+      <c r="N547" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>17.38022835720322</v>
+      </c>
+      <c r="B548" t="n">
+        <v>5.927436854202634</v>
+      </c>
+      <c r="C548" t="n">
+        <v>1.0630230104853</v>
+      </c>
+      <c r="D548" t="n">
+        <v>2.090438007114402</v>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F548" t="n">
+        <v>2.280658433464021</v>
+      </c>
+      <c r="G548" t="n">
+        <v>1.225397448059387</v>
+      </c>
+      <c r="H548" t="n">
+        <v>300</v>
+      </c>
+      <c r="I548" t="n">
+        <v>0.0002037008541329044</v>
+      </c>
+      <c r="J548" t="n">
+        <v>0.004809080551975264</v>
+      </c>
+      <c r="K548" t="n">
+        <v>0.04933462460815052</v>
+      </c>
+      <c r="L548" t="n">
+        <v>900</v>
+      </c>
+      <c r="M548" t="n">
+        <v>72.88348568744772</v>
+      </c>
+      <c r="N548" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>0.9200064800452928</v>
+      </c>
+      <c r="B549" t="n">
+        <v>1.905624532368995</v>
+      </c>
+      <c r="C549" t="n">
+        <v>0.973814369701047</v>
+      </c>
+      <c r="D549" t="n">
+        <v>1.314216100586662</v>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F549" t="n">
+        <v>0.07088787434564858</v>
+      </c>
+      <c r="G549" t="n">
+        <v>0.3820549429594703</v>
+      </c>
+      <c r="H549" t="n">
+        <v>7.745950163208111</v>
+      </c>
+      <c r="I549" t="n">
+        <v>0.2947520807938663</v>
+      </c>
+      <c r="J549" t="n">
+        <v>3.751851556954566e-05</v>
+      </c>
+      <c r="K549" t="n">
+        <v>0.1145451607577345</v>
+      </c>
+      <c r="L549" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M549" t="n">
+        <v>48.06491481870977</v>
+      </c>
+      <c r="N549" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>66.48148506086234</v>
+      </c>
+      <c r="B550" t="n">
+        <v>3.959500784978585</v>
+      </c>
+      <c r="C550" t="n">
+        <v>1.216530422571535</v>
+      </c>
+      <c r="D550" t="n">
+        <v>1.537383747887255</v>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F550" t="n">
+        <v>0.8296151148842508</v>
+      </c>
+      <c r="G550" t="n">
+        <v>1.589209126339814</v>
+      </c>
+      <c r="H550" t="n">
+        <v>300</v>
+      </c>
+      <c r="I550" t="n">
+        <v>0.001712980644105855</v>
+      </c>
+      <c r="J550" t="n">
+        <v>0.00626353511480604</v>
+      </c>
+      <c r="K550" t="n">
+        <v>0.09045613616352199</v>
+      </c>
+      <c r="L550" t="n">
+        <v>900</v>
+      </c>
+      <c r="M550" t="n">
+        <v>59.40552143284956</v>
+      </c>
+      <c r="N550" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>83.04325589398321</v>
+      </c>
+      <c r="B551" t="n">
+        <v>3.459363030122383</v>
+      </c>
+      <c r="C551" t="n">
+        <v>1.245566847163501</v>
+      </c>
+      <c r="D551" t="n">
+        <v>1.403883177786049</v>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F551" t="n">
+        <v>0.6955173910156782</v>
+      </c>
+      <c r="G551" t="n">
+        <v>1.697765705776712</v>
+      </c>
+      <c r="H551" t="n">
+        <v>300</v>
+      </c>
+      <c r="I551" t="n">
+        <v>0.001040740067624668</v>
+      </c>
+      <c r="J551" t="n">
+        <v>0.003924091544607267</v>
+      </c>
+      <c r="K551" t="n">
+        <v>0.04913766632860039</v>
+      </c>
+      <c r="L551" t="n">
+        <v>900</v>
+      </c>
+      <c r="M551" t="n">
+        <v>53.47396798370914</v>
+      </c>
+      <c r="N551" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>26.67678411086966</v>
+      </c>
+      <c r="B552" t="n">
+        <v>5.591300047024533</v>
+      </c>
+      <c r="C552" t="n">
+        <v>1.133460772337677</v>
+      </c>
+      <c r="D552" t="n">
+        <v>1.974870051814912</v>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F552" t="n">
+        <v>0.9243386548273065</v>
+      </c>
+      <c r="G552" t="n">
+        <v>1.315671875917016</v>
+      </c>
+      <c r="H552" t="n">
+        <v>300</v>
+      </c>
+      <c r="I552" t="n">
+        <v>0.0002179687382296569</v>
+      </c>
+      <c r="J552" t="n">
+        <v>0.06108743931495042</v>
+      </c>
+      <c r="K552" t="n">
+        <v>0.1888804125712804</v>
+      </c>
+      <c r="L552" t="n">
+        <v>900</v>
+      </c>
+      <c r="M552" t="n">
+        <v>70.87690908229081</v>
+      </c>
+      <c r="N552" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>118.9628225230835</v>
+      </c>
+      <c r="B553" t="n">
+        <v>2.521796252285356</v>
+      </c>
+      <c r="C553" t="n">
+        <v>1.355678079223565</v>
+      </c>
+      <c r="D553" t="n">
+        <v>1.225529361665615</v>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F553" t="n">
+        <v>0.7615212757913518</v>
+      </c>
+      <c r="G553" t="n">
+        <v>1.956848613874292</v>
+      </c>
+      <c r="H553" t="n">
+        <v>300</v>
+      </c>
+      <c r="I553" t="n">
+        <v>0.003655795225621095</v>
+      </c>
+      <c r="J553" t="n">
+        <v>0.02168029892086332</v>
+      </c>
+      <c r="K553" t="n">
+        <v>0.0211630191919191</v>
+      </c>
+      <c r="L553" t="n">
+        <v>900</v>
+      </c>
+      <c r="M553" t="n">
+        <v>40.68214688309909</v>
+      </c>
+      <c r="N553" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>1.234256618658783</v>
+      </c>
+      <c r="B554" t="n">
+        <v>3.05209130321846</v>
+      </c>
+      <c r="C554" t="n">
+        <v>1.044849432540683</v>
+      </c>
+      <c r="D554" t="n">
+        <v>1.52788467706178</v>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F554" t="n">
+        <v>1.076788727243264</v>
+      </c>
+      <c r="G554" t="n">
+        <v>0.5989019677793178</v>
+      </c>
+      <c r="H554" t="n">
+        <v>33.31164172967494</v>
+      </c>
+      <c r="I554" t="n">
+        <v>0.01490025636991721</v>
+      </c>
+      <c r="J554" t="n">
+        <v>0.0001975243287980488</v>
+      </c>
+      <c r="K554" t="n">
+        <v>0.1744155615101356</v>
+      </c>
+      <c r="L554" t="n">
+        <v>11.09665474726221</v>
+      </c>
+      <c r="M554" t="n">
+        <v>59.04262651455223</v>
+      </c>
+      <c r="N554" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>0.9972572486174427</v>
+      </c>
+      <c r="B555" t="n">
+        <v>2.514587811790913</v>
+      </c>
+      <c r="C555" t="n">
+        <v>0.8744187587430693</v>
+      </c>
+      <c r="D555" t="n">
+        <v>1.586648370473721</v>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F555" t="n">
+        <v>0.7494548195987651</v>
+      </c>
+      <c r="G555" t="n">
+        <v>0.4737583629704164</v>
+      </c>
+      <c r="H555" t="n">
+        <v>11.84677805252947</v>
+      </c>
+      <c r="I555" t="n">
+        <v>0.2369579013579211</v>
+      </c>
+      <c r="J555" t="n">
+        <v>4.056461001811229e-05</v>
+      </c>
+      <c r="K555" t="n">
+        <v>0.06234983769048519</v>
+      </c>
+      <c r="L555" t="n">
+        <v>2</v>
+      </c>
+      <c r="M555" t="n">
+        <v>61.17487748234428</v>
+      </c>
+      <c r="N555" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>14.84692360207738</v>
+      </c>
+      <c r="B556" t="n">
+        <v>6.188959379163001</v>
+      </c>
+      <c r="C556" t="n">
+        <v>1.062018186618868</v>
+      </c>
+      <c r="D556" t="n">
+        <v>2.103388418440941</v>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F556" t="n">
+        <v>2.22380721107436</v>
+      </c>
+      <c r="G556" t="n">
+        <v>1.190305144500813</v>
+      </c>
+      <c r="H556" t="n">
+        <v>300</v>
+      </c>
+      <c r="I556" t="n">
+        <v>0.0001455966345782489</v>
+      </c>
+      <c r="J556" t="n">
+        <v>0.001217944106090441</v>
+      </c>
+      <c r="K556" t="n">
+        <v>0.1955258911205239</v>
+      </c>
+      <c r="L556" t="n">
+        <v>900</v>
+      </c>
+      <c r="M556" t="n">
+        <v>73.09200413066308</v>
+      </c>
+      <c r="N556" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>3.972214982179231</v>
+      </c>
+      <c r="B557" t="n">
+        <v>4.471302945081088</v>
+      </c>
+      <c r="C557" t="n">
+        <v>0.997127885860034</v>
+      </c>
+      <c r="D557" t="n">
+        <v>2.021631767708309</v>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F557" t="n">
+        <v>1.792503222705901</v>
+      </c>
+      <c r="G557" t="n">
+        <v>0.930865099743737</v>
+      </c>
+      <c r="H557" t="n">
+        <v>132.3488802163342</v>
+      </c>
+      <c r="I557" t="n">
+        <v>0.0001191228150181356</v>
+      </c>
+      <c r="J557" t="n">
+        <v>0.1087255819669101</v>
+      </c>
+      <c r="K557" t="n">
+        <v>0.1545537325905944</v>
+      </c>
+      <c r="L557" t="n">
+        <v>175.1622609451756</v>
+      </c>
+      <c r="M557" t="n">
+        <v>71.7222028064655</v>
+      </c>
+      <c r="N557" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>19.55418928138324</v>
+      </c>
+      <c r="B558" t="n">
+        <v>5.731431745038625</v>
+      </c>
+      <c r="C558" t="n">
+        <v>1.038036471768842</v>
+      </c>
+      <c r="D558" t="n">
+        <v>2.017711521959364</v>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F558" t="n">
+        <v>0.8438887049424694</v>
+      </c>
+      <c r="G558" t="n">
+        <v>1.253314763869154</v>
+      </c>
+      <c r="H558" t="n">
+        <v>300</v>
+      </c>
+      <c r="I558" t="n">
+        <v>0.0002687831552204978</v>
+      </c>
+      <c r="J558" t="n">
+        <v>0.09332124749221438</v>
+      </c>
+      <c r="K558" t="n">
+        <v>0.2131766460294257</v>
+      </c>
+      <c r="L558" t="n">
+        <v>900</v>
+      </c>
+      <c r="M558" t="n">
+        <v>71.65316959116521</v>
+      </c>
+      <c r="N558" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>97.63247162830255</v>
+      </c>
+      <c r="B559" t="n">
+        <v>3.072748185072407</v>
+      </c>
+      <c r="C559" t="n">
+        <v>1.244093023254937</v>
+      </c>
+      <c r="D559" t="n">
+        <v>1.331302034170498</v>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F559" t="n">
+        <v>2.556408564827829</v>
+      </c>
+      <c r="G559" t="n">
+        <v>1.790809370969221</v>
+      </c>
+      <c r="H559" t="n">
+        <v>300</v>
+      </c>
+      <c r="I559" t="n">
+        <v>0.001903291214453984</v>
+      </c>
+      <c r="J559" t="n">
+        <v>0.01993026666666675</v>
+      </c>
+      <c r="K559" t="n">
+        <v>0.0228463438247013</v>
+      </c>
+      <c r="L559" t="n">
+        <v>900</v>
+      </c>
+      <c r="M559" t="n">
+        <v>49.21967143369753</v>
+      </c>
+      <c r="N559" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>1.398588107070212</v>
+      </c>
+      <c r="B560" t="n">
+        <v>3.062469304459958</v>
+      </c>
+      <c r="C560" t="n">
+        <v>1.125260827574196</v>
+      </c>
+      <c r="D560" t="n">
+        <v>1.619403135287461</v>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F560" t="n">
+        <v>0.5416277045496264</v>
+      </c>
+      <c r="G560" t="n">
+        <v>0.6456177295153648</v>
+      </c>
+      <c r="H560" t="n">
+        <v>42.2986467465029</v>
+      </c>
+      <c r="I560" t="n">
+        <v>0.3338630261730143</v>
+      </c>
+      <c r="J560" t="n">
+        <v>0.0002151293194306847</v>
+      </c>
+      <c r="K560" t="n">
+        <v>0.3323029234968995</v>
+      </c>
+      <c r="L560" t="n">
+        <v>17.8917551658544</v>
+      </c>
+      <c r="M560" t="n">
+        <v>62.25771065372269</v>
+      </c>
+      <c r="N560" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>97.37758380636801</v>
+      </c>
+      <c r="B561" t="n">
+        <v>3.080791166440726</v>
+      </c>
+      <c r="C561" t="n">
+        <v>1.249289646670369</v>
+      </c>
+      <c r="D561" t="n">
+        <v>1.330111156668995</v>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F561" t="n">
+        <v>2.390643877881896</v>
+      </c>
+      <c r="G561" t="n">
+        <v>1.783810982363767</v>
+      </c>
+      <c r="H561" t="n">
+        <v>300</v>
+      </c>
+      <c r="I561" t="n">
+        <v>0.002655358711520117</v>
+      </c>
+      <c r="J561" t="n">
+        <v>0.02559924854586126</v>
+      </c>
+      <c r="K561" t="n">
+        <v>0.02314132160493831</v>
+      </c>
+      <c r="L561" t="n">
+        <v>900</v>
+      </c>
+      <c r="M561" t="n">
+        <v>49.14136458095644</v>
+      </c>
+      <c r="N561" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>93.10161742221422</v>
+      </c>
+      <c r="B562" t="n">
+        <v>3.22228558758013</v>
+      </c>
+      <c r="C562" t="n">
+        <v>1.243781356077703</v>
+      </c>
+      <c r="D562" t="n">
+        <v>1.348109401005347</v>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F562" t="n">
+        <v>1.319434635110473</v>
+      </c>
+      <c r="G562" t="n">
+        <v>1.756847963353698</v>
+      </c>
+      <c r="H562" t="n">
+        <v>300</v>
+      </c>
+      <c r="I562" t="n">
+        <v>0.002750425000000001</v>
+      </c>
+      <c r="J562" t="n">
+        <v>0.01759904773139742</v>
+      </c>
+      <c r="K562" t="n">
+        <v>0.01983861355932204</v>
+      </c>
+      <c r="L562" t="n">
+        <v>900</v>
+      </c>
+      <c r="M562" t="n">
+        <v>50.29237623768768</v>
+      </c>
+      <c r="N562" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>4.405057935502986</v>
+      </c>
+      <c r="B563" t="n">
+        <v>4.389776260079227</v>
+      </c>
+      <c r="C563" t="n">
+        <v>0.9976002674657897</v>
+      </c>
+      <c r="D563" t="n">
+        <v>2.051546290080846</v>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F563" t="n">
+        <v>2.825463123681322</v>
+      </c>
+      <c r="G563" t="n">
+        <v>0.9521907858975968</v>
+      </c>
+      <c r="H563" t="n">
+        <v>185.3548539040381</v>
+      </c>
+      <c r="I563" t="n">
+        <v>0.1612007312234209</v>
+      </c>
+      <c r="J563" t="n">
+        <v>0.2447252130783142</v>
+      </c>
+      <c r="K563" t="n">
+        <v>0.3195306056407488</v>
+      </c>
+      <c r="L563" t="n">
+        <v>343.5642186578731</v>
+      </c>
+      <c r="M563" t="n">
+        <v>72.23852407820125</v>
+      </c>
+      <c r="N563" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>73.61742300021832</v>
+      </c>
+      <c r="B564" t="n">
+        <v>3.74640867968057</v>
+      </c>
+      <c r="C564" t="n">
+        <v>1.2297206454048</v>
+      </c>
+      <c r="D564" t="n">
+        <v>1.473246807519825</v>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F564" t="n">
+        <v>1.668001058628031</v>
+      </c>
+      <c r="G564" t="n">
+        <v>1.637892175007446</v>
+      </c>
+      <c r="H564" t="n">
+        <v>300</v>
+      </c>
+      <c r="I564" t="n">
+        <v>0.0005853942403569734</v>
+      </c>
+      <c r="J564" t="n">
+        <v>0.03882783167981951</v>
+      </c>
+      <c r="K564" t="n">
+        <v>0.1240378438423645</v>
+      </c>
+      <c r="L564" t="n">
+        <v>900</v>
+      </c>
+      <c r="M564" t="n">
+        <v>56.79699337452312</v>
+      </c>
+      <c r="N564" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>77.83738837847513</v>
+      </c>
+      <c r="B565" t="n">
+        <v>3.607388875929872</v>
+      </c>
+      <c r="C565" t="n">
+        <v>1.255315012975974</v>
+      </c>
+      <c r="D565" t="n">
+        <v>1.43528301604352</v>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F565" t="n">
+        <v>1.056120803125733</v>
+      </c>
+      <c r="G565" t="n">
+        <v>1.664317831804124</v>
+      </c>
+      <c r="H565" t="n">
+        <v>300</v>
+      </c>
+      <c r="I565" t="n">
+        <v>0.00156505525833639</v>
+      </c>
+      <c r="J565" t="n">
+        <v>0.05140520922420688</v>
+      </c>
+      <c r="K565" t="n">
+        <v>0.1236254955380578</v>
+      </c>
+      <c r="L565" t="n">
+        <v>900</v>
+      </c>
+      <c r="M565" t="n">
+        <v>55.05312737542527</v>
+      </c>
+      <c r="N565" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>1.094120654899982</v>
+      </c>
+      <c r="B566" t="n">
+        <v>2.926979929976927</v>
+      </c>
+      <c r="C566" t="n">
+        <v>0.8909782747959415</v>
+      </c>
+      <c r="D566" t="n">
+        <v>1.57867848287856</v>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F566" t="n">
+        <v>2.290169312696799</v>
+      </c>
+      <c r="G566" t="n">
+        <v>0.5393618441235208</v>
+      </c>
+      <c r="H566" t="n">
+        <v>17.79452293325332</v>
+      </c>
+      <c r="I566" t="n">
+        <v>0.2275619760889331</v>
+      </c>
+      <c r="J566" t="n">
+        <v>0.02476239819254278</v>
+      </c>
+      <c r="K566" t="n">
+        <v>0.212684985066267</v>
+      </c>
+      <c r="L566" t="n">
+        <v>2</v>
+      </c>
+      <c r="M566" t="n">
+        <v>60.9006594758388</v>
+      </c>
+      <c r="N566" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>5.128278029658241</v>
+      </c>
+      <c r="B567" t="n">
+        <v>5.115241900860629</v>
+      </c>
+      <c r="C567" t="n">
+        <v>0.910417073819215</v>
+      </c>
+      <c r="D567" t="n">
+        <v>2.083872171785247</v>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F567" t="n">
+        <v>2.787490278843305</v>
+      </c>
+      <c r="G567" t="n">
+        <v>0.9806009760892166</v>
+      </c>
+      <c r="H567" t="n">
+        <v>247.6199976796276</v>
+      </c>
+      <c r="I567" t="n">
+        <v>0.08994059997379666</v>
+      </c>
+      <c r="J567" t="n">
+        <v>0.1466040537742165</v>
+      </c>
+      <c r="K567" t="n">
+        <v>0.1479191180005655</v>
+      </c>
+      <c r="L567" t="n">
+        <v>613.1566325085878</v>
+      </c>
+      <c r="M567" t="n">
+        <v>72.77660085108964</v>
+      </c>
+      <c r="N567" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>19.74047943779969</v>
+      </c>
+      <c r="B568" t="n">
+        <v>5.88270870934156</v>
+      </c>
+      <c r="C568" t="n">
+        <v>1.019486076426883</v>
+      </c>
+      <c r="D568" t="n">
+        <v>2.056126041187126</v>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F568" t="n">
+        <v>1.601569869851228</v>
+      </c>
+      <c r="G568" t="n">
+        <v>1.253412825828204</v>
+      </c>
+      <c r="H568" t="n">
+        <v>300</v>
+      </c>
+      <c r="I568" t="n">
+        <v>0.0001368565431513202</v>
+      </c>
+      <c r="J568" t="n">
+        <v>0.03040952523022644</v>
+      </c>
+      <c r="K568" t="n">
+        <v>0.1715528736032915</v>
+      </c>
+      <c r="L568" t="n">
+        <v>900</v>
+      </c>
+      <c r="M568" t="n">
+        <v>72.31598093131774</v>
+      </c>
+      <c r="N568" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>58.31084603985783</v>
+      </c>
+      <c r="B569" t="n">
+        <v>4.242899996914778</v>
+      </c>
+      <c r="C569" t="n">
+        <v>1.20109766252592</v>
+      </c>
+      <c r="D569" t="n">
+        <v>1.625065969503448</v>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F569" t="n">
+        <v>2.983568927203808</v>
+      </c>
+      <c r="G569" t="n">
+        <v>1.537077857676632</v>
+      </c>
+      <c r="H569" t="n">
+        <v>300</v>
+      </c>
+      <c r="I569" t="n">
+        <v>0.001891977006552858</v>
+      </c>
+      <c r="J569" t="n">
+        <v>0.0393785554057251</v>
+      </c>
+      <c r="K569" t="n">
+        <v>0.0573498044284243</v>
+      </c>
+      <c r="L569" t="n">
+        <v>900</v>
+      </c>
+      <c r="M569" t="n">
+        <v>62.43809296649984</v>
+      </c>
+      <c r="N569" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>25.69772099279119</v>
+      </c>
+      <c r="B570" t="n">
+        <v>5.579237424146386</v>
+      </c>
+      <c r="C570" t="n">
+        <v>1.124695624336757</v>
+      </c>
+      <c r="D570" t="n">
+        <v>1.958451143747528</v>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F570" t="n">
+        <v>1.808723085698158</v>
+      </c>
+      <c r="G570" t="n">
+        <v>1.309315837688982</v>
+      </c>
+      <c r="H570" t="n">
+        <v>300</v>
+      </c>
+      <c r="I570" t="n">
+        <v>7.88763571317741e-05</v>
+      </c>
+      <c r="J570" t="n">
+        <v>0.04134304221623819</v>
+      </c>
+      <c r="K570" t="n">
+        <v>0.09389718622907062</v>
+      </c>
+      <c r="L570" t="n">
+        <v>900</v>
+      </c>
+      <c r="M570" t="n">
+        <v>70.56830237317482</v>
+      </c>
+      <c r="N570" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>1.308480105630777</v>
+      </c>
+      <c r="B571" t="n">
+        <v>3.062791491274268</v>
+      </c>
+      <c r="C571" t="n">
+        <v>1.097081812890742</v>
+      </c>
+      <c r="D571" t="n">
+        <v>1.534502441136255</v>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F571" t="n">
+        <v>1.056090894661949</v>
+      </c>
+      <c r="G571" t="n">
+        <v>0.6224915396683721</v>
+      </c>
+      <c r="H571" t="n">
+        <v>27.42602753060966</v>
+      </c>
+      <c r="I571" t="n">
+        <v>0.09159627419644023</v>
+      </c>
+      <c r="J571" t="n">
+        <v>0.09998804737823785</v>
+      </c>
+      <c r="K571" t="n">
+        <v>0.09162032694674105</v>
+      </c>
+      <c r="L571" t="n">
+        <v>7.521869861097588</v>
+      </c>
+      <c r="M571" t="n">
+        <v>59.29623858455992</v>
+      </c>
+      <c r="N571" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>4.784613028708534</v>
+      </c>
+      <c r="B572" t="n">
+        <v>4.677367030451097</v>
+      </c>
+      <c r="C572" t="n">
+        <v>0.9266467944720679</v>
+      </c>
+      <c r="D572" t="n">
+        <v>2.08525302256763</v>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F572" t="n">
+        <v>0.9564748624477448</v>
+      </c>
+      <c r="G572" t="n">
+        <v>0.9660451629435338</v>
+      </c>
+      <c r="H572" t="n">
+        <v>158.2108678511725</v>
+      </c>
+      <c r="I572" t="n">
+        <v>0.02624479504908295</v>
+      </c>
+      <c r="J572" t="n">
+        <v>0.02671695104497795</v>
+      </c>
+      <c r="K572" t="n">
+        <v>0.2206023818930228</v>
+      </c>
+      <c r="L572" t="n">
+        <v>250.3067870622116</v>
+      </c>
+      <c r="M572" t="n">
+        <v>72.79914558860754</v>
+      </c>
+      <c r="N572" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>55.3058431255333</v>
+      </c>
+      <c r="B573" t="n">
+        <v>4.321349541119792</v>
+      </c>
+      <c r="C573" t="n">
+        <v>1.187649964528183</v>
+      </c>
+      <c r="D573" t="n">
+        <v>1.664961453937878</v>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F573" t="n">
+        <v>0.1568255931065747</v>
+      </c>
+      <c r="G573" t="n">
+        <v>1.511567658392999</v>
+      </c>
+      <c r="H573" t="n">
+        <v>300</v>
+      </c>
+      <c r="I573" t="n">
+        <v>0.0008136563611016445</v>
+      </c>
+      <c r="J573" t="n">
+        <v>0.008852072247996556</v>
+      </c>
+      <c r="K573" t="n">
+        <v>0.07546577432024171</v>
+      </c>
+      <c r="L573" t="n">
+        <v>900</v>
+      </c>
+      <c r="M573" t="n">
+        <v>63.65667704685627</v>
+      </c>
+      <c r="N573" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>119.6269614876485</v>
+      </c>
+      <c r="B574" t="n">
+        <v>2.507795870339606</v>
+      </c>
+      <c r="C574" t="n">
+        <v>1.363186855637195</v>
+      </c>
+      <c r="D574" t="n">
+        <v>1.221845163805646</v>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F574" t="n">
+        <v>1.476399231026637</v>
+      </c>
+      <c r="G574" t="n">
+        <v>1.9620601744739</v>
+      </c>
+      <c r="H574" t="n">
+        <v>300</v>
+      </c>
+      <c r="I574" t="n">
+        <v>0.002462914758206036</v>
+      </c>
+      <c r="J574" t="n">
+        <v>0.0144227512195122</v>
+      </c>
+      <c r="K574" t="n">
+        <v>0.0144227512195122</v>
+      </c>
+      <c r="L574" t="n">
+        <v>900</v>
+      </c>
+      <c r="M574" t="n">
+        <v>40.30927944495787</v>
+      </c>
+      <c r="N574" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>41.89600436948852</v>
+      </c>
+      <c r="B575" t="n">
+        <v>4.898823148915419</v>
+      </c>
+      <c r="C575" t="n">
+        <v>1.172582350214304</v>
+      </c>
+      <c r="D575" t="n">
+        <v>1.783774159971929</v>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F575" t="n">
+        <v>0.4979255673405182</v>
+      </c>
+      <c r="G575" t="n">
+        <v>1.432439296917415</v>
+      </c>
+      <c r="H575" t="n">
+        <v>300</v>
+      </c>
+      <c r="I575" t="n">
+        <v>0.0004779059568251753</v>
+      </c>
+      <c r="J575" t="n">
+        <v>0.09005714440993784</v>
+      </c>
+      <c r="K575" t="n">
+        <v>0.1355738033294048</v>
+      </c>
+      <c r="L575" t="n">
+        <v>900</v>
+      </c>
+      <c r="M575" t="n">
+        <v>66.82708116920935</v>
+      </c>
+      <c r="N575" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>88.40233356210565</v>
+      </c>
+      <c r="B576" t="n">
+        <v>3.354317482428925</v>
+      </c>
+      <c r="C576" t="n">
+        <v>1.24183871463324</v>
+      </c>
+      <c r="D576" t="n">
+        <v>1.371655634645793</v>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F576" t="n">
+        <v>2.463810518493057</v>
+      </c>
+      <c r="G576" t="n">
+        <v>1.727716623129776</v>
+      </c>
+      <c r="H576" t="n">
+        <v>300</v>
+      </c>
+      <c r="I576" t="n">
+        <v>0.004820838852236276</v>
+      </c>
+      <c r="J576" t="n">
+        <v>0.05541562198772065</v>
+      </c>
+      <c r="K576" t="n">
+        <v>0.1460760323529411</v>
+      </c>
+      <c r="L576" t="n">
+        <v>900</v>
+      </c>
+      <c r="M576" t="n">
+        <v>51.70113713895967</v>
+      </c>
+      <c r="N576" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>35.32020381075368</v>
+      </c>
+      <c r="B577" t="n">
+        <v>5.192334227580488</v>
+      </c>
+      <c r="C577" t="n">
+        <v>1.150848581612987</v>
+      </c>
+      <c r="D577" t="n">
+        <v>1.856807690924448</v>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F577" t="n">
+        <v>2.35723004091619</v>
+      </c>
+      <c r="G577" t="n">
+        <v>1.388923626190122</v>
+      </c>
+      <c r="H577" t="n">
+        <v>300</v>
+      </c>
+      <c r="I577" t="n">
+        <v>0.0005652832643276984</v>
+      </c>
+      <c r="J577" t="n">
+        <v>0.01540468113838789</v>
+      </c>
+      <c r="K577" t="n">
+        <v>0.1753065216505896</v>
+      </c>
+      <c r="L577" t="n">
+        <v>900</v>
+      </c>
+      <c r="M577" t="n">
+        <v>68.50304313317076</v>
+      </c>
+      <c r="N577" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>80.02879893690181</v>
+      </c>
+      <c r="B578" t="n">
+        <v>3.564826869507853</v>
+      </c>
+      <c r="C578" t="n">
+        <v>1.244498589511603</v>
+      </c>
+      <c r="D578" t="n">
+        <v>1.420611273522139</v>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F578" t="n">
+        <v>1.420455232833001</v>
+      </c>
+      <c r="G578" t="n">
+        <v>1.676315117961485</v>
+      </c>
+      <c r="H578" t="n">
+        <v>300</v>
+      </c>
+      <c r="I578" t="n">
+        <v>0.003388273309608558</v>
+      </c>
+      <c r="J578" t="n">
+        <v>0.01524661428571439</v>
+      </c>
+      <c r="K578" t="n">
+        <v>0.02069178883248723</v>
+      </c>
+      <c r="L578" t="n">
+        <v>900</v>
+      </c>
+      <c r="M578" t="n">
+        <v>54.33198746208762</v>
+      </c>
+      <c r="N578" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>60.3023657923578</v>
+      </c>
+      <c r="B579" t="n">
+        <v>4.166471664896438</v>
+      </c>
+      <c r="C579" t="n">
+        <v>1.197830536525935</v>
+      </c>
+      <c r="D579" t="n">
+        <v>1.603511730158539</v>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F579" t="n">
+        <v>1.018028702032391</v>
+      </c>
+      <c r="G579" t="n">
+        <v>1.548802611941086</v>
+      </c>
+      <c r="H579" t="n">
+        <v>300</v>
+      </c>
+      <c r="I579" t="n">
+        <v>0.00112099194529558</v>
+      </c>
+      <c r="J579" t="n">
+        <v>0.002617851218778222</v>
+      </c>
+      <c r="K579" t="n">
+        <v>0.12459475035461</v>
+      </c>
+      <c r="L579" t="n">
+        <v>900</v>
+      </c>
+      <c r="M579" t="n">
+        <v>61.74097480303037</v>
+      </c>
+      <c r="N579" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>28.6470328708814</v>
+      </c>
+      <c r="B580" t="n">
+        <v>5.56107289504553</v>
+      </c>
+      <c r="C580" t="n">
+        <v>1.131745927912539</v>
+      </c>
+      <c r="D580" t="n">
+        <v>1.953478228779799</v>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F580" t="n">
+        <v>1.581673778479171</v>
+      </c>
+      <c r="G580" t="n">
+        <v>1.335134412176164</v>
+      </c>
+      <c r="H580" t="n">
+        <v>300</v>
+      </c>
+      <c r="I580" t="n">
+        <v>0.0002505545883679794</v>
+      </c>
+      <c r="J580" t="n">
+        <v>0.08221246063271204</v>
+      </c>
+      <c r="K580" t="n">
+        <v>0.1268050322217363</v>
+      </c>
+      <c r="L580" t="n">
+        <v>900</v>
+      </c>
+      <c r="M580" t="n">
+        <v>70.47356001570549</v>
+      </c>
+      <c r="N580" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>118.7658724851994</v>
+      </c>
+      <c r="B581" t="n">
+        <v>2.525978159570932</v>
+      </c>
+      <c r="C581" t="n">
+        <v>1.359225396260609</v>
+      </c>
+      <c r="D581" t="n">
+        <v>1.224763510252039</v>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F581" t="n">
+        <v>1.169758188598895</v>
+      </c>
+      <c r="G581" t="n">
+        <v>1.950688574352034</v>
+      </c>
+      <c r="H581" t="n">
+        <v>300</v>
+      </c>
+      <c r="I581" t="n">
+        <v>0.002651840961262475</v>
+      </c>
+      <c r="J581" t="n">
+        <v>0.07610390125240851</v>
+      </c>
+      <c r="K581" t="n">
+        <v>0.1235079527027028</v>
+      </c>
+      <c r="L581" t="n">
+        <v>900</v>
+      </c>
+      <c r="M581" t="n">
+        <v>40.60518568842025</v>
+      </c>
+      <c r="N581" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>2.389850531390374</v>
+      </c>
+      <c r="B582" t="n">
+        <v>3.665231101949262</v>
+      </c>
+      <c r="C582" t="n">
+        <v>0.9582171568074023</v>
+      </c>
+      <c r="D582" t="n">
+        <v>1.802702629904447</v>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F582" t="n">
+        <v>2.954472335174348</v>
+      </c>
+      <c r="G582" t="n">
+        <v>0.8000759282148405</v>
+      </c>
+      <c r="H582" t="n">
+        <v>65.86831600306988</v>
+      </c>
+      <c r="I582" t="n">
+        <v>0.08989161738968354</v>
+      </c>
+      <c r="J582" t="n">
+        <v>0.08961580476287112</v>
+      </c>
+      <c r="K582" t="n">
+        <v>0.2787332367752044</v>
+      </c>
+      <c r="L582" t="n">
+        <v>43.38635053080272</v>
+      </c>
+      <c r="M582" t="n">
+        <v>67.27895130920308</v>
+      </c>
+      <c r="N582" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>99.30964034408881</v>
+      </c>
+      <c r="B583" t="n">
+        <v>3.020854762544277</v>
+      </c>
+      <c r="C583" t="n">
+        <v>1.264932420237394</v>
+      </c>
+      <c r="D583" t="n">
+        <v>1.3200627837639</v>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F583" t="n">
+        <v>0.215023939791706</v>
+      </c>
+      <c r="G583" t="n">
+        <v>1.796327615784073</v>
+      </c>
+      <c r="H583" t="n">
+        <v>300</v>
+      </c>
+      <c r="I583" t="n">
+        <v>0.002502509163346489</v>
+      </c>
+      <c r="J583" t="n">
+        <v>0.0382283474025974</v>
+      </c>
+      <c r="K583" t="n">
+        <v>0.02274023956043947</v>
+      </c>
+      <c r="L583" t="n">
+        <v>900</v>
+      </c>
+      <c r="M583" t="n">
+        <v>48.46778919520792</v>
+      </c>
+      <c r="N583" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>1.059310658785908</v>
+      </c>
+      <c r="B584" t="n">
+        <v>2.83948308194151</v>
+      </c>
+      <c r="C584" t="n">
+        <v>0.8682504826496034</v>
+      </c>
+      <c r="D584" t="n">
+        <v>1.587237470432673</v>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F584" t="n">
+        <v>1.776059894525232</v>
+      </c>
+      <c r="G584" t="n">
+        <v>0.5197123116449163</v>
+      </c>
+      <c r="H584" t="n">
+        <v>16.8227097379687</v>
+      </c>
+      <c r="I584" t="n">
+        <v>0.2284003980716597</v>
+      </c>
+      <c r="J584" t="n">
+        <v>8.815329649891623e-05</v>
+      </c>
+      <c r="K584" t="n">
+        <v>0.1536994842686687</v>
+      </c>
+      <c r="L584" t="n">
+        <v>2</v>
+      </c>
+      <c r="M584" t="n">
+        <v>61.19497326390469</v>
+      </c>
+      <c r="N584" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>1.867760860603272</v>
+      </c>
+      <c r="B585" t="n">
+        <v>3.421810773041093</v>
+      </c>
+      <c r="C585" t="n">
+        <v>0.9493725946037093</v>
+      </c>
+      <c r="D585" t="n">
+        <v>1.695972577152312</v>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F585" t="n">
+        <v>1.155611937896028</v>
+      </c>
+      <c r="G585" t="n">
+        <v>0.7242473089032052</v>
+      </c>
+      <c r="H585" t="n">
+        <v>63.90771134521776</v>
+      </c>
+      <c r="I585" t="n">
+        <v>0.3329785965452232</v>
+      </c>
+      <c r="J585" t="n">
+        <v>0.2141203422299312</v>
+      </c>
+      <c r="K585" t="n">
+        <v>0.3160213255207824</v>
+      </c>
+      <c r="L585" t="n">
+        <v>40.84195569383674</v>
+      </c>
+      <c r="M585" t="n">
+        <v>64.54566081355894</v>
+      </c>
+      <c r="N585" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>3.095849292758597</v>
+      </c>
+      <c r="B586" t="n">
+        <v>4.293783170411251</v>
+      </c>
+      <c r="C586" t="n">
+        <v>1.016671145616916</v>
+      </c>
+      <c r="D586" t="n">
+        <v>1.816147057354695</v>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F586" t="n">
+        <v>1.850203500004822</v>
+      </c>
+      <c r="G586" t="n">
+        <v>0.8748387039856176</v>
+      </c>
+      <c r="H586" t="n">
+        <v>120.0801760067179</v>
+      </c>
+      <c r="I586" t="n">
+        <v>0.04154296830582771</v>
+      </c>
+      <c r="J586" t="n">
+        <v>0.2456302978091184</v>
+      </c>
+      <c r="K586" t="n">
+        <v>0.287386791934226</v>
+      </c>
+      <c r="L586" t="n">
+        <v>144.1924866980436</v>
+      </c>
+      <c r="M586" t="n">
+        <v>67.59220283864538</v>
+      </c>
+      <c r="N586" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>9.002316606858088</v>
+      </c>
+      <c r="B587" t="n">
+        <v>5.36475778801631</v>
+      </c>
+      <c r="C587" t="n">
+        <v>1.018182600766448</v>
+      </c>
+      <c r="D587" t="n">
+        <v>2.13073985816001</v>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F587" t="n">
+        <v>1.491474403598179</v>
+      </c>
+      <c r="G587" t="n">
+        <v>1.100672180325199</v>
+      </c>
+      <c r="H587" t="n">
+        <v>300</v>
+      </c>
+      <c r="I587" t="n">
+        <v>0.03906399097318602</v>
+      </c>
+      <c r="J587" t="n">
+        <v>0.1236303202788408</v>
+      </c>
+      <c r="K587" t="n">
+        <v>0.2127485092214494</v>
+      </c>
+      <c r="L587" t="n">
+        <v>900</v>
+      </c>
+      <c r="M587" t="n">
+        <v>73.52266582521004</v>
+      </c>
+      <c r="N587" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>44.04672671084649</v>
+      </c>
+      <c r="B588" t="n">
+        <v>4.790924967489812</v>
+      </c>
+      <c r="C588" t="n">
+        <v>1.181937519105266</v>
+      </c>
+      <c r="D588" t="n">
+        <v>1.767414836337622</v>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F588" t="n">
+        <v>2.685134701783309</v>
+      </c>
+      <c r="G588" t="n">
+        <v>1.446862858137048</v>
+      </c>
+      <c r="H588" t="n">
+        <v>300</v>
+      </c>
+      <c r="I588" t="n">
+        <v>0.000414563203661289</v>
+      </c>
+      <c r="J588" t="n">
+        <v>0.001081852503477032</v>
+      </c>
+      <c r="K588" t="n">
+        <v>0.1568722837317397</v>
+      </c>
+      <c r="L588" t="n">
+        <v>900</v>
+      </c>
+      <c r="M588" t="n">
+        <v>66.42587487711022</v>
+      </c>
+      <c r="N588" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>5.461559321313922</v>
+      </c>
+      <c r="B589" t="n">
+        <v>5.211284167210366</v>
+      </c>
+      <c r="C589" t="n">
+        <v>0.9227949617053964</v>
+      </c>
+      <c r="D589" t="n">
+        <v>2.050970832432404</v>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F589" t="n">
+        <v>2.620693183064356</v>
+      </c>
+      <c r="G589" t="n">
+        <v>0.9981447027491158</v>
+      </c>
+      <c r="H589" t="n">
+        <v>181.2174614489379</v>
+      </c>
+      <c r="I589" t="n">
+        <v>0.006238571408318516</v>
+      </c>
+      <c r="J589" t="n">
+        <v>0.1161021136925429</v>
+      </c>
+      <c r="K589" t="n">
+        <v>0.3748866802712687</v>
+      </c>
+      <c r="L589" t="n">
+        <v>328.3976833399731</v>
+      </c>
+      <c r="M589" t="n">
+        <v>72.22876217952108</v>
+      </c>
+      <c r="N589" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>114.3879201805576</v>
+      </c>
+      <c r="B590" t="n">
+        <v>2.622654555887193</v>
+      </c>
+      <c r="C590" t="n">
+        <v>1.339685140654295</v>
+      </c>
+      <c r="D590" t="n">
+        <v>1.244918140116271</v>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F590" t="n">
+        <v>0.3458211657913874</v>
+      </c>
+      <c r="G590" t="n">
+        <v>1.915290172179515</v>
+      </c>
+      <c r="H590" t="n">
+        <v>300</v>
+      </c>
+      <c r="I590" t="n">
+        <v>0.006208788236680807</v>
+      </c>
+      <c r="J590" t="n">
+        <v>0.05616708076923072</v>
+      </c>
+      <c r="K590" t="n">
+        <v>0.08693631153846149</v>
+      </c>
+      <c r="L590" t="n">
+        <v>900</v>
+      </c>
+      <c r="M590" t="n">
+        <v>42.54087539537055</v>
+      </c>
+      <c r="N590" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>1.600211204153565</v>
+      </c>
+      <c r="B591" t="n">
+        <v>3.122704717570743</v>
+      </c>
+      <c r="C591" t="n">
+        <v>1.094699031935793</v>
+      </c>
+      <c r="D591" t="n">
+        <v>1.680305539802371</v>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F591" t="n">
+        <v>1.534971348773217</v>
+      </c>
+      <c r="G591" t="n">
+        <v>0.6859361677957659</v>
+      </c>
+      <c r="H591" t="n">
+        <v>44.13237553422971</v>
+      </c>
+      <c r="I591" t="n">
+        <v>0.2638448205904179</v>
+      </c>
+      <c r="J591" t="n">
+        <v>0.0002798962927147985</v>
+      </c>
+      <c r="K591" t="n">
+        <v>0.264193179738763</v>
+      </c>
+      <c r="L591" t="n">
+        <v>19.47666570294277</v>
+      </c>
+      <c r="M591" t="n">
+        <v>64.10254194648063</v>
+      </c>
+      <c r="N591" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>1.04082585147991</v>
+      </c>
+      <c r="B592" t="n">
+        <v>2.775693606186842</v>
+      </c>
+      <c r="C592" t="n">
+        <v>0.8601467126630322</v>
+      </c>
+      <c r="D592" t="n">
+        <v>1.5911692568454</v>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F592" t="n">
+        <v>1.549492887047336</v>
+      </c>
+      <c r="G592" t="n">
+        <v>0.5071446122364432</v>
+      </c>
+      <c r="H592" t="n">
+        <v>20.32961847032752</v>
+      </c>
+      <c r="I592" t="n">
+        <v>0.3773250385487795</v>
+      </c>
+      <c r="J592" t="n">
+        <v>0.004503522741445887</v>
+      </c>
+      <c r="K592" t="n">
+        <v>0.3471490426770103</v>
+      </c>
+      <c r="L592" t="n">
+        <v>4.132933871490819</v>
+      </c>
+      <c r="M592" t="n">
+        <v>61.32849533536313</v>
+      </c>
+      <c r="N592" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>1.595674435514575</v>
+      </c>
+      <c r="B593" t="n">
+        <v>3.112356579663649</v>
+      </c>
+      <c r="C593" t="n">
+        <v>1.09898375100921</v>
+      </c>
+      <c r="D593" t="n">
+        <v>1.680622509001848</v>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F593" t="n">
+        <v>2.096400825204881</v>
+      </c>
+      <c r="G593" t="n">
+        <v>0.6847973217380511</v>
+      </c>
+      <c r="H593" t="n">
+        <v>50.20030266656671</v>
+      </c>
+      <c r="I593" t="n">
+        <v>0.2494141547070702</v>
+      </c>
+      <c r="J593" t="n">
+        <v>0.2541831124403721</v>
+      </c>
+      <c r="K593" t="n">
+        <v>0.2488058973943063</v>
+      </c>
+      <c r="L593" t="n">
+        <v>25.20070387814905</v>
+      </c>
+      <c r="M593" t="n">
+        <v>64.11162646607484</v>
+      </c>
+      <c r="N593" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>109.1988060660365</v>
+      </c>
+      <c r="B594" t="n">
+        <v>2.74728278456249</v>
+      </c>
+      <c r="C594" t="n">
+        <v>1.327356409569707</v>
+      </c>
+      <c r="D594" t="n">
+        <v>1.267604372861435</v>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F594" t="n">
+        <v>1.360614641217657</v>
+      </c>
+      <c r="G594" t="n">
+        <v>1.870100014401046</v>
+      </c>
+      <c r="H594" t="n">
+        <v>300</v>
+      </c>
+      <c r="I594" t="n">
+        <v>0.009599744517492348</v>
+      </c>
+      <c r="J594" t="n">
+        <v>0.01790108795180723</v>
+      </c>
+      <c r="K594" t="n">
+        <v>0.05544383814432985</v>
+      </c>
+      <c r="L594" t="n">
+        <v>900</v>
+      </c>
+      <c r="M594" t="n">
+        <v>44.52120420788138</v>
+      </c>
+      <c r="N594" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>12.95814511474364</v>
+      </c>
+      <c r="B595" t="n">
+        <v>5.980740551784001</v>
+      </c>
+      <c r="C595" t="n">
+        <v>1.051410744778503</v>
+      </c>
+      <c r="D595" t="n">
+        <v>2.061381252485171</v>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F595" t="n">
+        <v>2.02813654384291</v>
+      </c>
+      <c r="G595" t="n">
+        <v>1.172908882048765</v>
+      </c>
+      <c r="H595" t="n">
+        <v>300</v>
+      </c>
+      <c r="I595" t="n">
+        <v>0.0003446165757040598</v>
+      </c>
+      <c r="J595" t="n">
+        <v>0.001186772369624833</v>
+      </c>
+      <c r="K595" t="n">
+        <v>0.002445419480519573</v>
+      </c>
+      <c r="L595" t="n">
+        <v>900</v>
+      </c>
+      <c r="M595" t="n">
+        <v>72.40435588052942</v>
+      </c>
+      <c r="N595" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>70.5286824211497</v>
+      </c>
+      <c r="B596" t="n">
+        <v>3.78994971262622</v>
+      </c>
+      <c r="C596" t="n">
+        <v>1.239326596466293</v>
+      </c>
+      <c r="D596" t="n">
+        <v>1.499697712239915</v>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F596" t="n">
+        <v>2.835855753579045</v>
+      </c>
+      <c r="G596" t="n">
+        <v>1.617465443071096</v>
+      </c>
+      <c r="H596" t="n">
+        <v>300</v>
+      </c>
+      <c r="I596" t="n">
+        <v>0.001222624482951185</v>
+      </c>
+      <c r="J596" t="n">
+        <v>0.005360032081141997</v>
+      </c>
+      <c r="K596" t="n">
+        <v>0.01093863879415358</v>
+      </c>
+      <c r="L596" t="n">
+        <v>900</v>
+      </c>
+      <c r="M596" t="n">
+        <v>57.91955870949641</v>
+      </c>
+      <c r="N596" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>2.15815070163296</v>
+      </c>
+      <c r="B597" t="n">
+        <v>3.555063082778219</v>
+      </c>
+      <c r="C597" t="n">
+        <v>0.9215258710441662</v>
+      </c>
+      <c r="D597" t="n">
+        <v>1.683023843359367</v>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F597" t="n">
+        <v>2.564261569110033</v>
+      </c>
+      <c r="G597" t="n">
+        <v>0.7655688218632111</v>
+      </c>
+      <c r="H597" t="n">
+        <v>77.07861499609822</v>
+      </c>
+      <c r="I597" t="n">
+        <v>0.3102425279897293</v>
+      </c>
+      <c r="J597" t="n">
+        <v>0.2358407980655516</v>
+      </c>
+      <c r="K597" t="n">
+        <v>0.3697905797079472</v>
+      </c>
+      <c r="L597" t="n">
+        <v>59.41112889716738</v>
+      </c>
+      <c r="M597" t="n">
+        <v>64.18028761593668</v>
+      </c>
+      <c r="N597" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>13.26786872302262</v>
+      </c>
+      <c r="B598" t="n">
+        <v>5.900024644987711</v>
+      </c>
+      <c r="C598" t="n">
+        <v>1.06091967074679</v>
+      </c>
+      <c r="D598" t="n">
+        <v>2.039983748304786</v>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F598" t="n">
+        <v>0.959628146474135</v>
+      </c>
+      <c r="G598" t="n">
+        <v>1.178293558557691</v>
+      </c>
+      <c r="H598" t="n">
+        <v>300</v>
+      </c>
+      <c r="I598" t="n">
+        <v>0.0002071618341803472</v>
+      </c>
+      <c r="J598" t="n">
+        <v>0.0754066793327155</v>
+      </c>
+      <c r="K598" t="n">
+        <v>0.1056470510816873</v>
+      </c>
+      <c r="L598" t="n">
+        <v>900</v>
+      </c>
+      <c r="M598" t="n">
+        <v>72.04111422777551</v>
+      </c>
+      <c r="N598" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>61.63885580134341</v>
+      </c>
+      <c r="B599" t="n">
+        <v>4.13487628898824</v>
+      </c>
+      <c r="C599" t="n">
+        <v>1.214359262382114</v>
+      </c>
+      <c r="D599" t="n">
+        <v>1.583877044615626</v>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F599" t="n">
+        <v>0.3432390367788066</v>
+      </c>
+      <c r="G599" t="n">
+        <v>1.556757147080377</v>
+      </c>
+      <c r="H599" t="n">
+        <v>300</v>
+      </c>
+      <c r="I599" t="n">
+        <v>0.002569949646364367</v>
+      </c>
+      <c r="J599" t="n">
+        <v>0.07625119732652819</v>
+      </c>
+      <c r="K599" t="n">
+        <v>0.08635432211221128</v>
+      </c>
+      <c r="L599" t="n">
+        <v>900</v>
+      </c>
+      <c r="M599" t="n">
+        <v>61.080022122564</v>
+      </c>
+      <c r="N599" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>40.7961487476542</v>
+      </c>
+      <c r="B600" t="n">
+        <v>4.978500554963884</v>
+      </c>
+      <c r="C600" t="n">
+        <v>1.155870075309064</v>
+      </c>
+      <c r="D600" t="n">
+        <v>1.805707774047703</v>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F600" t="n">
+        <v>2.288795014931643</v>
+      </c>
+      <c r="G600" t="n">
+        <v>1.422126307441711</v>
+      </c>
+      <c r="H600" t="n">
+        <v>300</v>
+      </c>
+      <c r="I600" t="n">
+        <v>0.0009970376664130143</v>
+      </c>
+      <c r="J600" t="n">
+        <v>0.008512621238478513</v>
+      </c>
+      <c r="K600" t="n">
+        <v>0.2248799860291371</v>
+      </c>
+      <c r="L600" t="n">
+        <v>900</v>
+      </c>
+      <c r="M600" t="n">
+        <v>67.34951472177502</v>
+      </c>
+      <c r="N600" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>117.8013606594231</v>
+      </c>
+      <c r="B601" t="n">
+        <v>2.546659888482388</v>
+      </c>
+      <c r="C601" t="n">
+        <v>1.35392927938573</v>
+      </c>
+      <c r="D601" t="n">
+        <v>1.229816052608665</v>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F601" t="n">
+        <v>1.347233183754318</v>
+      </c>
+      <c r="G601" t="n">
+        <v>1.94483810758237</v>
+      </c>
+      <c r="H601" t="n">
+        <v>300</v>
+      </c>
+      <c r="I601" t="n">
+        <v>0.00242536218407241</v>
+      </c>
+      <c r="J601" t="n">
+        <v>0.02792510629370626</v>
+      </c>
+      <c r="K601" t="n">
+        <v>0.2482633</v>
+      </c>
+      <c r="L601" t="n">
+        <v>900</v>
+      </c>
+      <c r="M601" t="n">
+        <v>41.10773075302488</v>
+      </c>
+      <c r="N601" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>121.4855246249696</v>
+      </c>
+      <c r="B602" t="n">
+        <v>2.46943000761705</v>
+      </c>
+      <c r="C602" t="n">
+        <v>1.368404979684135</v>
+      </c>
+      <c r="D602" t="n">
+        <v>1.2158482830591</v>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F602" t="n">
+        <v>0.8993288404301852</v>
+      </c>
+      <c r="G602" t="n">
+        <v>1.974589581277912</v>
+      </c>
+      <c r="H602" t="n">
+        <v>300</v>
+      </c>
+      <c r="I602" t="n">
+        <v>0.002917457096049403</v>
+      </c>
+      <c r="J602" t="n">
+        <v>0.02321725264900654</v>
+      </c>
+      <c r="K602" t="n">
+        <v>0.02566077987012982</v>
+      </c>
+      <c r="L602" t="n">
+        <v>900</v>
+      </c>
+      <c r="M602" t="n">
+        <v>39.68771062310441</v>
+      </c>
+      <c r="N602" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>8.812613069496869</v>
+      </c>
+      <c r="B603" t="n">
+        <v>5.419323319477956</v>
+      </c>
+      <c r="C603" t="n">
+        <v>0.9878021020051279</v>
+      </c>
+      <c r="D603" t="n">
+        <v>2.154585023010259</v>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F603" t="n">
+        <v>0.6852300994323863</v>
+      </c>
+      <c r="G603" t="n">
+        <v>1.097056672338453</v>
+      </c>
+      <c r="H603" t="n">
+        <v>300</v>
+      </c>
+      <c r="I603" t="n">
+        <v>7.119357768226031e-05</v>
+      </c>
+      <c r="J603" t="n">
+        <v>0.06465864481175088</v>
+      </c>
+      <c r="K603" t="n">
+        <v>0.1480168622669225</v>
+      </c>
+      <c r="L603" t="n">
+        <v>900</v>
+      </c>
+      <c r="M603" t="n">
+        <v>73.88777655954576</v>
+      </c>
+      <c r="N603" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>12.7209021954948</v>
+      </c>
+      <c r="B604" t="n">
+        <v>6.100897721153688</v>
+      </c>
+      <c r="C604" t="n">
+        <v>1.04957628343749</v>
+      </c>
+      <c r="D604" t="n">
+        <v>2.079299614065933</v>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F604" t="n">
+        <v>2.393878067458175</v>
+      </c>
+      <c r="G604" t="n">
+        <v>1.163487227978562</v>
+      </c>
+      <c r="H604" t="n">
+        <v>300</v>
+      </c>
+      <c r="I604" t="n">
+        <v>0.05169777064473247</v>
+      </c>
+      <c r="J604" t="n">
+        <v>0.07944762757419455</v>
+      </c>
+      <c r="K604" t="n">
+        <v>0.2104955083546814</v>
+      </c>
+      <c r="L604" t="n">
+        <v>900</v>
+      </c>
+      <c r="M604" t="n">
+        <v>72.70169345443188</v>
+      </c>
+      <c r="N604" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>1.394571053342111</v>
+      </c>
+      <c r="B605" t="n">
+        <v>3.060278185218799</v>
+      </c>
+      <c r="C605" t="n">
+        <v>1.124664435124481</v>
+      </c>
+      <c r="D605" t="n">
+        <v>1.615453257087983</v>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F605" t="n">
+        <v>1.675451168460304</v>
+      </c>
+      <c r="G605" t="n">
+        <v>0.6449381001646675</v>
+      </c>
+      <c r="H605" t="n">
+        <v>34.45379294370122</v>
+      </c>
+      <c r="I605" t="n">
+        <v>0.192158968924488</v>
+      </c>
+      <c r="J605" t="n">
+        <v>0.1618632559314909</v>
+      </c>
+      <c r="K605" t="n">
+        <v>0.2459251382850142</v>
+      </c>
+      <c r="L605" t="n">
+        <v>11.87063848207436</v>
+      </c>
+      <c r="M605" t="n">
+        <v>62.13074030097324</v>
+      </c>
+      <c r="N605" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>37.52314793293128</v>
+      </c>
+      <c r="B606" t="n">
+        <v>5.081282974899656</v>
+      </c>
+      <c r="C606" t="n">
+        <v>1.161468519566375</v>
+      </c>
+      <c r="D606" t="n">
+        <v>1.828290354807049</v>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F606" t="n">
+        <v>2.909947658786594</v>
+      </c>
+      <c r="G606" t="n">
+        <v>1.402907695537053</v>
+      </c>
+      <c r="H606" t="n">
+        <v>300</v>
+      </c>
+      <c r="I606" t="n">
+        <v>0.0005755284792066107</v>
+      </c>
+      <c r="J606" t="n">
+        <v>0.1031384512712525</v>
+      </c>
+      <c r="K606" t="n">
+        <v>0.1341940643418982</v>
+      </c>
+      <c r="L606" t="n">
+        <v>900</v>
+      </c>
+      <c r="M606" t="n">
+        <v>67.86985131581912</v>
+      </c>
+      <c r="N606" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>2.480990697825865</v>
+      </c>
+      <c r="B607" t="n">
+        <v>3.688834139516494</v>
+      </c>
+      <c r="C607" t="n">
+        <v>0.9788455907099681</v>
+      </c>
+      <c r="D607" t="n">
+        <v>1.826092547704643</v>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F607" t="n">
+        <v>2.138715262807095</v>
+      </c>
+      <c r="G607" t="n">
+        <v>0.8122549895816852</v>
+      </c>
+      <c r="H607" t="n">
+        <v>79.95049594700156</v>
+      </c>
+      <c r="I607" t="n">
+        <v>0.08404797236414963</v>
+      </c>
+      <c r="J607" t="n">
+        <v>0.08406250688190264</v>
+      </c>
+      <c r="K607" t="n">
+        <v>0.1616083731053826</v>
+      </c>
+      <c r="L607" t="n">
+        <v>63.92081802171512</v>
+      </c>
+      <c r="M607" t="n">
+        <v>67.81996436331535</v>
+      </c>
+      <c r="N607" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>45.57603041076234</v>
+      </c>
+      <c r="B608" t="n">
+        <v>4.690934595937799</v>
+      </c>
+      <c r="C608" t="n">
+        <v>1.182210589681967</v>
+      </c>
+      <c r="D608" t="n">
+        <v>1.748232957288636</v>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F608" t="n">
+        <v>1.970760254368896</v>
+      </c>
+      <c r="G608" t="n">
+        <v>1.456091340638797</v>
+      </c>
+      <c r="H608" t="n">
+        <v>300</v>
+      </c>
+      <c r="I608" t="n">
+        <v>0.0009848388662129226</v>
+      </c>
+      <c r="J608" t="n">
+        <v>0.008747495479312084</v>
+      </c>
+      <c r="K608" t="n">
+        <v>0.1059436241784038</v>
+      </c>
+      <c r="L608" t="n">
+        <v>900</v>
+      </c>
+      <c r="M608" t="n">
+        <v>65.94220726360888</v>
+      </c>
+      <c r="N608" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>109.6182943615845</v>
+      </c>
+      <c r="B609" t="n">
+        <v>2.736769457572716</v>
+      </c>
+      <c r="C609" t="n">
+        <v>1.311573435703042</v>
+      </c>
+      <c r="D609" t="n">
+        <v>1.269809884870011</v>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F609" t="n">
+        <v>0.3694334832376645</v>
+      </c>
+      <c r="G609" t="n">
+        <v>1.879341021060282</v>
+      </c>
+      <c r="H609" t="n">
+        <v>300</v>
+      </c>
+      <c r="I609" t="n">
+        <v>0.002958192745622368</v>
+      </c>
+      <c r="J609" t="n">
+        <v>0.02579667168674693</v>
+      </c>
+      <c r="K609" t="n">
+        <v>0.03996322802197794</v>
+      </c>
+      <c r="L609" t="n">
+        <v>900</v>
+      </c>
+      <c r="M609" t="n">
+        <v>44.7038109449724</v>
+      </c>
+      <c r="N609" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>5.574028626965538</v>
+      </c>
+      <c r="B610" t="n">
+        <v>5.261490019045623</v>
+      </c>
+      <c r="C610" t="n">
+        <v>0.9214724446505774</v>
+      </c>
+      <c r="D610" t="n">
+        <v>2.044879378826761</v>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F610" t="n">
+        <v>2.654645158443908</v>
+      </c>
+      <c r="G610" t="n">
+        <v>1.003650593245528</v>
+      </c>
+      <c r="H610" t="n">
+        <v>184.2438134215074</v>
+      </c>
+      <c r="I610" t="n">
+        <v>0.07417545562574324</v>
+      </c>
+      <c r="J610" t="n">
+        <v>0.07852329580338535</v>
+      </c>
+      <c r="K610" t="n">
+        <v>0.07691649942896694</v>
+      </c>
+      <c r="L610" t="n">
+        <v>339.4578278409925</v>
+      </c>
+      <c r="M610" t="n">
+        <v>72.12502509105379</v>
+      </c>
+      <c r="N610" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>77.97282893592767</v>
+      </c>
+      <c r="B611" t="n">
+        <v>3.625706522473425</v>
+      </c>
+      <c r="C611" t="n">
+        <v>1.239703905710566</v>
+      </c>
+      <c r="D611" t="n">
+        <v>1.437734611069679</v>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F611" t="n">
+        <v>0.4057914668168808</v>
+      </c>
+      <c r="G611" t="n">
+        <v>1.665335278136392</v>
+      </c>
+      <c r="H611" t="n">
+        <v>300</v>
+      </c>
+      <c r="I611" t="n">
+        <v>0.001773886665928925</v>
+      </c>
+      <c r="J611" t="n">
+        <v>0.009817307813834275</v>
+      </c>
+      <c r="K611" t="n">
+        <v>0.1337309573122529</v>
+      </c>
+      <c r="L611" t="n">
+        <v>900</v>
+      </c>
+      <c r="M611" t="n">
+        <v>55.17091901810183</v>
+      </c>
+      <c r="N611" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>1.41053711510937</v>
+      </c>
+      <c r="B612" t="n">
+        <v>3.062828446938745</v>
+      </c>
+      <c r="C612" t="n">
+        <v>1.127210800040421</v>
+      </c>
+      <c r="D612" t="n">
+        <v>1.627848059415108</v>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F612" t="n">
+        <v>1.433121816448246</v>
+      </c>
+      <c r="G612" t="n">
+        <v>0.6482642574234345</v>
+      </c>
+      <c r="H612" t="n">
+        <v>36.27331075509196</v>
+      </c>
+      <c r="I612" t="n">
+        <v>0.1060694512482379</v>
+      </c>
+      <c r="J612" t="n">
+        <v>0.0001153823600602566</v>
+      </c>
+      <c r="K612" t="n">
+        <v>0.3276350643085936</v>
+      </c>
+      <c r="L612" t="n">
+        <v>13.1575307313547</v>
+      </c>
+      <c r="M612" t="n">
+        <v>62.52600985072961</v>
+      </c>
+      <c r="N612" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>4.396616433197554</v>
+      </c>
+      <c r="B613" t="n">
+        <v>4.415927720459619</v>
+      </c>
+      <c r="C613" t="n">
+        <v>0.9962734331388985</v>
+      </c>
+      <c r="D613" t="n">
+        <v>2.0703794932731</v>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F613" t="n">
+        <v>1.00717618947119</v>
+      </c>
+      <c r="G613" t="n">
+        <v>0.9511011526202469</v>
+      </c>
+      <c r="H613" t="n">
+        <v>171.6488799250363</v>
+      </c>
+      <c r="I613" t="n">
+        <v>0.04934480684052489</v>
+      </c>
+      <c r="J613" t="n">
+        <v>0.1328167414643872</v>
+      </c>
+      <c r="K613" t="n">
+        <v>0.3223665953107541</v>
+      </c>
+      <c r="L613" t="n">
+        <v>294.6333797951953</v>
+      </c>
+      <c r="M613" t="n">
+        <v>72.55443651013552</v>
+      </c>
+      <c r="N613" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>1.161027775525374</v>
+      </c>
+      <c r="B614" t="n">
+        <v>3.00963751420227</v>
+      </c>
+      <c r="C614" t="n">
+        <v>0.9536613804005036</v>
+      </c>
+      <c r="D614" t="n">
+        <v>1.553801289118835</v>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F614" t="n">
+        <v>1.306537291748357</v>
+      </c>
+      <c r="G614" t="n">
+        <v>0.5716272215505011</v>
+      </c>
+      <c r="H614" t="n">
+        <v>23.35396152910291</v>
+      </c>
+      <c r="I614" t="n">
+        <v>0.2832638556743198</v>
+      </c>
+      <c r="J614" t="n">
+        <v>9.814504845684358e-05</v>
+      </c>
+      <c r="K614" t="n">
+        <v>0.2155606980622969</v>
+      </c>
+      <c r="L614" t="n">
+        <v>5.454075191028189</v>
+      </c>
+      <c r="M614" t="n">
+        <v>60.01547540240969</v>
+      </c>
+      <c r="N614" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>2.235862327119563</v>
+      </c>
+      <c r="B615" t="n">
+        <v>3.6072926356692</v>
+      </c>
+      <c r="C615" t="n">
+        <v>0.9307538457643495</v>
+      </c>
+      <c r="D615" t="n">
+        <v>1.723475370085407</v>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F615" t="n">
+        <v>0.1552771435723234</v>
+      </c>
+      <c r="G615" t="n">
+        <v>0.777528178544981</v>
+      </c>
+      <c r="H615" t="n">
+        <v>61.16971394599506</v>
+      </c>
+      <c r="I615" t="n">
+        <v>0.1534847146960737</v>
+      </c>
+      <c r="J615" t="n">
+        <v>0.1535778205330195</v>
+      </c>
+      <c r="K615" t="n">
+        <v>0.1805456006506003</v>
+      </c>
+      <c r="L615" t="n">
+        <v>37.41733904234862</v>
+      </c>
+      <c r="M615" t="n">
+        <v>65.29559865744226</v>
+      </c>
+      <c r="N615" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>23.31291649458641</v>
+      </c>
+      <c r="B616" t="n">
+        <v>5.696508268082692</v>
+      </c>
+      <c r="C616" t="n">
+        <v>1.088449169381249</v>
+      </c>
+      <c r="D616" t="n">
+        <v>2.01055646352048</v>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F616" t="n">
+        <v>1.451694117143253</v>
+      </c>
+      <c r="G616" t="n">
+        <v>1.286543612280083</v>
+      </c>
+      <c r="H616" t="n">
+        <v>300</v>
+      </c>
+      <c r="I616" t="n">
+        <v>0.0005511331682703791</v>
+      </c>
+      <c r="J616" t="n">
+        <v>0.05858551628075248</v>
+      </c>
+      <c r="K616" t="n">
+        <v>0.1067130538884192</v>
+      </c>
+      <c r="L616" t="n">
+        <v>900</v>
+      </c>
+      <c r="M616" t="n">
+        <v>71.52633091003084</v>
+      </c>
+      <c r="N616" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>1.578089124499389</v>
+      </c>
+      <c r="B617" t="n">
+        <v>3.073939626375332</v>
+      </c>
+      <c r="C617" t="n">
+        <v>1.11615620227434</v>
+      </c>
+      <c r="D617" t="n">
+        <v>1.678109180104841</v>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F617" t="n">
+        <v>2.999881082076425</v>
+      </c>
+      <c r="G617" t="n">
+        <v>0.682131235945671</v>
+      </c>
+      <c r="H617" t="n">
+        <v>44.18333276475223</v>
+      </c>
+      <c r="I617" t="n">
+        <v>0.2428985672971538</v>
+      </c>
+      <c r="J617" t="n">
+        <v>0.08156347076495024</v>
+      </c>
+      <c r="K617" t="n">
+        <v>0.2410975698200709</v>
+      </c>
+      <c r="L617" t="n">
+        <v>19.52166894200828</v>
+      </c>
+      <c r="M617" t="n">
+        <v>64.03945491663399</v>
+      </c>
+      <c r="N617" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>1.093578732517331</v>
+      </c>
+      <c r="B618" t="n">
+        <v>2.924597388237041</v>
+      </c>
+      <c r="C618" t="n">
+        <v>0.8909523562895424</v>
+      </c>
+      <c r="D618" t="n">
+        <v>1.57837261980129</v>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F618" t="n">
+        <v>0.1700910522861181</v>
+      </c>
+      <c r="G618" t="n">
+        <v>0.5390242129063429</v>
+      </c>
+      <c r="H618" t="n">
+        <v>21.52204853600592</v>
+      </c>
+      <c r="I618" t="n">
+        <v>0.1975827801359632</v>
+      </c>
+      <c r="J618" t="n">
+        <v>2.932109722325604e-05</v>
+      </c>
+      <c r="K618" t="n">
+        <v>0.1979144992997548</v>
+      </c>
+      <c r="L618" t="n">
+        <v>4.631985731861943</v>
+      </c>
+      <c r="M618" t="n">
+        <v>60.8900478230028</v>
+      </c>
+      <c r="N618" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>13.43532993894656</v>
+      </c>
+      <c r="B619" t="n">
+        <v>6.158920271030354</v>
+      </c>
+      <c r="C619" t="n">
+        <v>1.043573086275523</v>
+      </c>
+      <c r="D619" t="n">
+        <v>2.110453295725578</v>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F619" t="n">
+        <v>1.307117307814514</v>
+      </c>
+      <c r="G619" t="n">
+        <v>1.174421879475448</v>
+      </c>
+      <c r="H619" t="n">
+        <v>300</v>
+      </c>
+      <c r="I619" t="n">
+        <v>9.029080492395369e-05</v>
+      </c>
+      <c r="J619" t="n">
+        <v>0.03004564572341395</v>
+      </c>
+      <c r="K619" t="n">
+        <v>0.203865566748286</v>
+      </c>
+      <c r="L619" t="n">
+        <v>900</v>
+      </c>
+      <c r="M619" t="n">
+        <v>73.20449297445745</v>
+      </c>
+      <c r="N619" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>83.1062519833572</v>
+      </c>
+      <c r="B620" t="n">
+        <v>3.474312866026832</v>
+      </c>
+      <c r="C620" t="n">
+        <v>1.244298300013815</v>
+      </c>
+      <c r="D620" t="n">
+        <v>1.40040336381807</v>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F620" t="n">
+        <v>0.4655117657433523</v>
+      </c>
+      <c r="G620" t="n">
+        <v>1.699611950623999</v>
+      </c>
+      <c r="H620" t="n">
+        <v>300</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0.002120918741668865</v>
+      </c>
+      <c r="J620" t="n">
+        <v>0.005160165976761055</v>
+      </c>
+      <c r="K620" t="n">
+        <v>0.01184858684210532</v>
+      </c>
+      <c r="L620" t="n">
+        <v>900</v>
+      </c>
+      <c r="M620" t="n">
+        <v>53.29040395919289</v>
+      </c>
+      <c r="N620" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>115.6544394369517</v>
+      </c>
+      <c r="B621" t="n">
+        <v>2.593934149527767</v>
+      </c>
+      <c r="C621" t="n">
+        <v>1.350574269421116</v>
+      </c>
+      <c r="D621" t="n">
+        <v>1.238039240741516</v>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F621" t="n">
+        <v>2.70464069271084</v>
+      </c>
+      <c r="G621" t="n">
+        <v>1.924645802295897</v>
+      </c>
+      <c r="H621" t="n">
+        <v>300</v>
+      </c>
+      <c r="I621" t="n">
+        <v>0.003385389658443927</v>
+      </c>
+      <c r="J621" t="n">
+        <v>0.008289019696969713</v>
+      </c>
+      <c r="K621" t="n">
+        <v>0.06502841240875912</v>
+      </c>
+      <c r="L621" t="n">
+        <v>900</v>
+      </c>
+      <c r="M621" t="n">
+        <v>41.90041925100588</v>
+      </c>
+      <c r="N621" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>7.02997123203625</v>
+      </c>
+      <c r="B622" t="n">
+        <v>5.584480617939173</v>
+      </c>
+      <c r="C622" t="n">
+        <v>0.9392981463460923</v>
+      </c>
+      <c r="D622" t="n">
+        <v>2.054021970258411</v>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F622" t="n">
+        <v>1.772826378512372</v>
+      </c>
+      <c r="G622" t="n">
+        <v>1.052596775522404</v>
+      </c>
+      <c r="H622" t="n">
+        <v>254.2501142665553</v>
+      </c>
+      <c r="I622" t="n">
+        <v>0.02175374495846139</v>
+      </c>
+      <c r="J622" t="n">
+        <v>0.1089308192044068</v>
+      </c>
+      <c r="K622" t="n">
+        <v>0.3167930984484899</v>
+      </c>
+      <c r="L622" t="n">
+        <v>646.4312060455643</v>
+      </c>
+      <c r="M622" t="n">
+        <v>72.28044624032212</v>
+      </c>
+      <c r="N622" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>66.30616381095356</v>
+      </c>
+      <c r="B623" t="n">
+        <v>3.957042356127184</v>
+      </c>
+      <c r="C623" t="n">
+        <v>1.235216498180491</v>
+      </c>
+      <c r="D623" t="n">
+        <v>1.535272339818357</v>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F623" t="n">
+        <v>2.175369861489417</v>
+      </c>
+      <c r="G623" t="n">
+        <v>1.587247838228562</v>
+      </c>
+      <c r="H623" t="n">
+        <v>300</v>
+      </c>
+      <c r="I623" t="n">
+        <v>0.001288849990794705</v>
+      </c>
+      <c r="J623" t="n">
+        <v>0.006186871584334619</v>
+      </c>
+      <c r="K623" t="n">
+        <v>0.1104322018453427</v>
+      </c>
+      <c r="L623" t="n">
+        <v>900</v>
+      </c>
+      <c r="M623" t="n">
+        <v>59.32550637233829</v>
+      </c>
+      <c r="N623" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>1.351403558156</v>
+      </c>
+      <c r="B624" t="n">
+        <v>3.06722108490512</v>
+      </c>
+      <c r="C624" t="n">
+        <v>1.11369498601565</v>
+      </c>
+      <c r="D624" t="n">
+        <v>1.586940039734589</v>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F624" t="n">
+        <v>0.5841976865649391</v>
+      </c>
+      <c r="G624" t="n">
+        <v>0.6336424660813339</v>
+      </c>
+      <c r="H624" t="n">
+        <v>42.20485495212642</v>
+      </c>
+      <c r="I624" t="n">
+        <v>0.198615172842777</v>
+      </c>
+      <c r="J624" t="n">
+        <v>0.2025489427101859</v>
+      </c>
+      <c r="K624" t="n">
+        <v>0.198271494977145</v>
+      </c>
+      <c r="L624" t="n">
+        <v>17.8124978153003</v>
+      </c>
+      <c r="M624" t="n">
+        <v>61.18483005549334</v>
+      </c>
+      <c r="N624" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>2.087351632636677</v>
+      </c>
+      <c r="B625" t="n">
+        <v>3.509284404360613</v>
+      </c>
+      <c r="C625" t="n">
+        <v>0.9162401557354236</v>
+      </c>
+      <c r="D625" t="n">
+        <v>1.688489268036901</v>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F625" t="n">
+        <v>0.9346658665207792</v>
+      </c>
+      <c r="G625" t="n">
+        <v>0.7544734331953546</v>
+      </c>
+      <c r="H625" t="n">
+        <v>77.87966006189605</v>
+      </c>
+      <c r="I625" t="n">
+        <v>0.3418763371529585</v>
+      </c>
+      <c r="J625" t="n">
+        <v>0.341874081018436</v>
+      </c>
+      <c r="K625" t="n">
+        <v>0.4278454589561972</v>
+      </c>
+      <c r="L625" t="n">
+        <v>60.65241451356486</v>
+      </c>
+      <c r="M625" t="n">
+        <v>64.33549881063698</v>
+      </c>
+      <c r="N625" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>0.9985718625354657</v>
+      </c>
+      <c r="B626" t="n">
+        <v>2.524892410421884</v>
+      </c>
+      <c r="C626" t="n">
+        <v>0.8730000223823318</v>
+      </c>
+      <c r="D626" t="n">
+        <v>1.586911390241099</v>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F626" t="n">
+        <v>2.034342821068098</v>
+      </c>
+      <c r="G626" t="n">
+        <v>0.4748875989005853</v>
+      </c>
+      <c r="H626" t="n">
+        <v>12.76374062528994</v>
+      </c>
+      <c r="I626" t="n">
+        <v>0.158600198125212</v>
+      </c>
+      <c r="J626" t="n">
+        <v>4.5078762043127e-05</v>
+      </c>
+      <c r="K626" t="n">
+        <v>0.1154944828319049</v>
+      </c>
+      <c r="L626" t="n">
+        <v>2</v>
+      </c>
+      <c r="M626" t="n">
+        <v>61.18385271089429</v>
+      </c>
+      <c r="N626" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>43.7766055898414</v>
+      </c>
+      <c r="B627" t="n">
+        <v>4.797332114017363</v>
+      </c>
+      <c r="C627" t="n">
+        <v>1.175488520719324</v>
+      </c>
+      <c r="D627" t="n">
+        <v>1.770119494400556</v>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F627" t="n">
+        <v>0.6208052475762701</v>
+      </c>
+      <c r="G627" t="n">
+        <v>1.442068336164654</v>
+      </c>
+      <c r="H627" t="n">
+        <v>300</v>
+      </c>
+      <c r="I627" t="n">
+        <v>0.0002841457354058052</v>
+      </c>
+      <c r="J627" t="n">
+        <v>0.07476962647058816</v>
+      </c>
+      <c r="K627" t="n">
+        <v>0.06053351149479658</v>
+      </c>
+      <c r="L627" t="n">
+        <v>900</v>
+      </c>
+      <c r="M627" t="n">
+        <v>66.49290839508546</v>
+      </c>
+      <c r="N627" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>118.6359425749426</v>
+      </c>
+      <c r="B628" t="n">
+        <v>2.528744607145422</v>
+      </c>
+      <c r="C628" t="n">
+        <v>1.350834796693567</v>
+      </c>
+      <c r="D628" t="n">
+        <v>1.228089476658998</v>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F628" t="n">
+        <v>1.631493172286009</v>
+      </c>
+      <c r="G628" t="n">
+        <v>1.954191247295613</v>
+      </c>
+      <c r="H628" t="n">
+        <v>300</v>
+      </c>
+      <c r="I628" t="n">
+        <v>0.004664371636801334</v>
+      </c>
+      <c r="J628" t="n">
+        <v>0.07325859285714276</v>
+      </c>
+      <c r="K628" t="n">
+        <v>0.1480407500000001</v>
+      </c>
+      <c r="L628" t="n">
+        <v>900</v>
+      </c>
+      <c r="M628" t="n">
+        <v>40.93736459714639</v>
+      </c>
+      <c r="N628" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>16.00618066270255</v>
+      </c>
+      <c r="B629" t="n">
+        <v>5.816151410286305</v>
+      </c>
+      <c r="C629" t="n">
+        <v>1.067543489414472</v>
+      </c>
+      <c r="D629" t="n">
+        <v>2.034236027590577</v>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F629" t="n">
+        <v>0.03099761495820652</v>
+      </c>
+      <c r="G629" t="n">
+        <v>1.214846654565533</v>
+      </c>
+      <c r="H629" t="n">
+        <v>300</v>
+      </c>
+      <c r="I629" t="n">
+        <v>0.0001910174070748338</v>
+      </c>
+      <c r="J629" t="n">
+        <v>0.04993254182679274</v>
+      </c>
+      <c r="K629" t="n">
+        <v>0.1964206791429655</v>
+      </c>
+      <c r="L629" t="n">
+        <v>900</v>
+      </c>
+      <c r="M629" t="n">
+        <v>71.94197895924908</v>
+      </c>
+      <c r="N629" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>34.59335495793529</v>
+      </c>
+      <c r="B630" t="n">
+        <v>5.299410408607762</v>
+      </c>
+      <c r="C630" t="n">
+        <v>1.151418249400783</v>
+      </c>
+      <c r="D630" t="n">
+        <v>1.867417715598405</v>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F630" t="n">
+        <v>2.568964203255327</v>
+      </c>
+      <c r="G630" t="n">
+        <v>1.37992561348177</v>
+      </c>
+      <c r="H630" t="n">
+        <v>300</v>
+      </c>
+      <c r="I630" t="n">
+        <v>0.0005968308426556046</v>
+      </c>
+      <c r="J630" t="n">
+        <v>0.003560028326996201</v>
+      </c>
+      <c r="K630" t="n">
+        <v>0.1851924490744635</v>
+      </c>
+      <c r="L630" t="n">
+        <v>900</v>
+      </c>
+      <c r="M630" t="n">
+        <v>68.73216600567373</v>
+      </c>
+      <c r="N630" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>39.96356132041512</v>
+      </c>
+      <c r="B631" t="n">
+        <v>5.005799732127818</v>
+      </c>
+      <c r="C631" t="n">
+        <v>1.170807393456722</v>
+      </c>
+      <c r="D631" t="n">
+        <v>1.804398450009757</v>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F631" t="n">
+        <v>0.2603239392234619</v>
+      </c>
+      <c r="G631" t="n">
+        <v>1.418478546977844</v>
+      </c>
+      <c r="H631" t="n">
+        <v>300</v>
+      </c>
+      <c r="I631" t="n">
+        <v>0.0004007779356032248</v>
+      </c>
+      <c r="J631" t="n">
+        <v>0.06701690320821974</v>
+      </c>
+      <c r="K631" t="n">
+        <v>0.09172166365994805</v>
+      </c>
+      <c r="L631" t="n">
+        <v>900</v>
+      </c>
+      <c r="M631" t="n">
+        <v>67.31880957444206</v>
+      </c>
+      <c r="N631" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>98.57626839965369</v>
+      </c>
+      <c r="B632" t="n">
+        <v>3.043328834316617</v>
+      </c>
+      <c r="C632" t="n">
+        <v>1.253389332838414</v>
+      </c>
+      <c r="D632" t="n">
+        <v>1.324168289857618</v>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F632" t="n">
+        <v>0.2467617528168002</v>
+      </c>
+      <c r="G632" t="n">
+        <v>1.791786504930871</v>
+      </c>
+      <c r="H632" t="n">
+        <v>300</v>
+      </c>
+      <c r="I632" t="n">
+        <v>0.003115375182818125</v>
+      </c>
+      <c r="J632" t="n">
+        <v>0.0171149885844748</v>
+      </c>
+      <c r="K632" t="n">
+        <v>0.03281794999999987</v>
+      </c>
+      <c r="L632" t="n">
+        <v>900</v>
+      </c>
+      <c r="M632" t="n">
+        <v>48.74580984311888</v>
+      </c>
+      <c r="N632" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>97.58056771121484</v>
+      </c>
+      <c r="B633" t="n">
+        <v>3.074382605436731</v>
+      </c>
+      <c r="C633" t="n">
+        <v>1.249042753082789</v>
+      </c>
+      <c r="D633" t="n">
+        <v>1.329870035574432</v>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F633" t="n">
+        <v>1.210908275093118</v>
+      </c>
+      <c r="G633" t="n">
+        <v>1.783857304668925</v>
+      </c>
+      <c r="H633" t="n">
+        <v>300</v>
+      </c>
+      <c r="I633" t="n">
+        <v>0.002267534799638482</v>
+      </c>
+      <c r="J633" t="n">
+        <v>0.05277575746691865</v>
+      </c>
+      <c r="K633" t="n">
+        <v>0.1788607345549738</v>
+      </c>
+      <c r="L633" t="n">
+        <v>900</v>
+      </c>
+      <c r="M633" t="n">
+        <v>49.12547106504713</v>
+      </c>
+      <c r="N633" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>3.453562691183685</v>
+      </c>
+      <c r="B634" t="n">
+        <v>4.464831295824477</v>
+      </c>
+      <c r="C634" t="n">
+        <v>1.001668776370786</v>
+      </c>
+      <c r="D634" t="n">
+        <v>1.874293974122077</v>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F634" t="n">
+        <v>0.06637137843262952</v>
+      </c>
+      <c r="G634" t="n">
+        <v>0.9012754734281473</v>
+      </c>
+      <c r="H634" t="n">
+        <v>125.6134309687411</v>
+      </c>
+      <c r="I634" t="n">
+        <v>0.05181946989253217</v>
+      </c>
+      <c r="J634" t="n">
+        <v>0.1632856893455923</v>
+      </c>
+      <c r="K634" t="n">
+        <v>0.2712610955784545</v>
+      </c>
+      <c r="L634" t="n">
+        <v>157.7873403973869</v>
+      </c>
+      <c r="M634" t="n">
+        <v>68.87885779692763</v>
+      </c>
+      <c r="N634" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>1.508209340876401</v>
+      </c>
+      <c r="B635" t="n">
+        <v>3.049602419496253</v>
+      </c>
+      <c r="C635" t="n">
+        <v>1.13363269699986</v>
+      </c>
+      <c r="D635" t="n">
+        <v>1.66553943365032</v>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F635" t="n">
+        <v>0.5981966932911786</v>
+      </c>
+      <c r="G635" t="n">
+        <v>0.6689250354513606</v>
+      </c>
+      <c r="H635" t="n">
+        <v>31.45973195571699</v>
+      </c>
+      <c r="I635" t="n">
+        <v>0.133878647366456</v>
+      </c>
+      <c r="J635" t="n">
+        <v>0.005031456445888649</v>
+      </c>
+      <c r="K635" t="n">
+        <v>0.1338503272270504</v>
+      </c>
+      <c r="L635" t="n">
+        <v>9.897147347255608</v>
+      </c>
+      <c r="M635" t="n">
+        <v>63.67369172515487</v>
+      </c>
+      <c r="N635" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>17.92961169166879</v>
+      </c>
+      <c r="B636" t="n">
+        <v>5.811550773449087</v>
+      </c>
+      <c r="C636" t="n">
+        <v>1.059668219549994</v>
+      </c>
+      <c r="D636" t="n">
+        <v>2.042772161458171</v>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>GW</t>
+        </is>
+      </c>
+      <c r="F636" t="n">
+        <v>0.8972052521779853</v>
+      </c>
+      <c r="G636" t="n">
+        <v>1.234498865488343</v>
+      </c>
+      <c r="H636" t="n">
+        <v>300</v>
+      </c>
+      <c r="I636" t="n">
+        <v>0.02723727651520802</v>
+      </c>
+      <c r="J636" t="n">
+        <v>0.07337824822658323</v>
+      </c>
+      <c r="K636" t="n">
+        <v>0.1854151458343982</v>
+      </c>
+      <c r="L636" t="n">
+        <v>900</v>
+      </c>
+      <c r="M636" t="n">
+        <v>72.08896665459949</v>
+      </c>
+      <c r="N636" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>5.367266130548668</v>
+      </c>
+      <c r="B637" t="n">
+        <v>5.111023256084634</v>
+      </c>
+      <c r="C637" t="n">
+        <v>0.9267584425245224</v>
+      </c>
+      <c r="D637" t="n">
+        <v>2.051572073746997</v>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F637" t="n">
+        <v>2.745819759376177</v>
+      </c>
+      <c r="G637" t="n">
+        <v>0.9953814899613974</v>
+      </c>
+      <c r="H637" t="n">
+        <v>208.0292639750635</v>
+      </c>
+      <c r="I637" t="n">
+        <v>2.078679801376104e-05</v>
+      </c>
+      <c r="J637" t="n">
+        <v>0.2348766250100629</v>
+      </c>
+      <c r="K637" t="n">
+        <v>0.2297438840224454</v>
+      </c>
+      <c r="L637" t="n">
+        <v>432.7617467000664</v>
+      </c>
+      <c r="M637" t="n">
+        <v>72.23896131163814</v>
+      </c>
+      <c r="N637" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>1.225580745891968</v>
+      </c>
+      <c r="B638" t="n">
+        <v>3.047661463909507</v>
+      </c>
+      <c r="C638" t="n">
+        <v>1.036288906674253</v>
+      </c>
+      <c r="D638" t="n">
+        <v>1.530620929895921</v>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F638" t="n">
+        <v>2.237192528671815</v>
+      </c>
+      <c r="G638" t="n">
+        <v>0.5965547024878877</v>
+      </c>
+      <c r="H638" t="n">
+        <v>25.36946623676688</v>
+      </c>
+      <c r="I638" t="n">
+        <v>0.2335566392708041</v>
+      </c>
+      <c r="J638" t="n">
+        <v>0.1457707431259822</v>
+      </c>
+      <c r="K638" t="n">
+        <v>0.2334585032846744</v>
+      </c>
+      <c r="L638" t="n">
+        <v>6.436098171384549</v>
+      </c>
+      <c r="M638" t="n">
+        <v>59.14793292726912</v>
+      </c>
+      <c r="N638" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>2.181882217839664</v>
+      </c>
+      <c r="B639" t="n">
+        <v>3.578436234228688</v>
+      </c>
+      <c r="C639" t="n">
+        <v>0.9233397570528477</v>
+      </c>
+      <c r="D639" t="n">
+        <v>1.682963763187902</v>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F639" t="n">
+        <v>0.3437533388828486</v>
+      </c>
+      <c r="G639" t="n">
+        <v>0.7692084008877332</v>
+      </c>
+      <c r="H639" t="n">
+        <v>68.20012681367841</v>
+      </c>
+      <c r="I639" t="n">
+        <v>0.3193523894237043</v>
+      </c>
+      <c r="J639" t="n">
+        <v>0.1321388486350427</v>
+      </c>
+      <c r="K639" t="n">
+        <v>0.312985708774722</v>
+      </c>
+      <c r="L639" t="n">
+        <v>46.51257297401816</v>
+      </c>
+      <c r="M639" t="n">
+        <v>64.17857324029532</v>
+      </c>
+      <c r="N639" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>0.908508671456993</v>
+      </c>
+      <c r="B640" t="n">
+        <v>1.859932192429289</v>
+      </c>
+      <c r="C640" t="n">
+        <v>0.9711445940813783</v>
+      </c>
+      <c r="D640" t="n">
+        <v>1.297529172668541</v>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F640" t="n">
+        <v>1.355427318653132</v>
+      </c>
+      <c r="G640" t="n">
+        <v>0.3610372248346215</v>
+      </c>
+      <c r="H640" t="n">
+        <v>7.498577256871509</v>
+      </c>
+      <c r="I640" t="n">
+        <v>0.2625332573340351</v>
+      </c>
+      <c r="J640" t="n">
+        <v>9.417258353433544e-06</v>
+      </c>
+      <c r="K640" t="n">
+        <v>0.1729602780525423</v>
+      </c>
+      <c r="L640" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M640" t="n">
+        <v>46.86752513677418</v>
+      </c>
+      <c r="N640" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>109.570282394117</v>
+      </c>
+      <c r="B641" t="n">
+        <v>2.737968666731369</v>
+      </c>
+      <c r="C641" t="n">
+        <v>1.319337204321702</v>
+      </c>
+      <c r="D641" t="n">
+        <v>1.268148462868495</v>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F641" t="n">
+        <v>2.992476314758589</v>
+      </c>
+      <c r="G641" t="n">
+        <v>1.879497369593618</v>
+      </c>
+      <c r="H641" t="n">
+        <v>300</v>
+      </c>
+      <c r="I641" t="n">
+        <v>0.005287428143298301</v>
+      </c>
+      <c r="J641" t="n">
+        <v>0.01312017114716102</v>
+      </c>
+      <c r="K641" t="n">
+        <v>0.06604763236009736</v>
+      </c>
+      <c r="L641" t="n">
+        <v>900</v>
+      </c>
+      <c r="M641" t="n">
+        <v>44.56640612574979</v>
+      </c>
+      <c r="N641" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>1.497347017556788</v>
+      </c>
+      <c r="B642" t="n">
+        <v>3.047856490119463</v>
+      </c>
+      <c r="C642" t="n">
+        <v>1.133620711228408</v>
+      </c>
+      <c r="D642" t="n">
+        <v>1.660564400039451</v>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F642" t="n">
+        <v>1.99509976541795</v>
+      </c>
+      <c r="G642" t="n">
+        <v>0.6670936530364513</v>
+      </c>
+      <c r="H642" t="n">
+        <v>33.21233310718341</v>
+      </c>
+      <c r="I642" t="n">
+        <v>0.1458567317044133</v>
+      </c>
+      <c r="J642" t="n">
+        <v>0.005492152711719211</v>
+      </c>
+      <c r="K642" t="n">
+        <v>0.1404363413115503</v>
+      </c>
+      <c r="L642" t="n">
+        <v>11.03059070422511</v>
+      </c>
+      <c r="M642" t="n">
+        <v>63.5266603801552</v>
+      </c>
+      <c r="N642" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>1.030796496474385</v>
+      </c>
+      <c r="B643" t="n">
+        <v>2.730241100726035</v>
+      </c>
+      <c r="C643" t="n">
+        <v>0.8589176750983657</v>
+      </c>
+      <c r="D643" t="n">
+        <v>1.591293941424945</v>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F643" t="n">
+        <v>2.518281777485851</v>
+      </c>
+      <c r="G643" t="n">
+        <v>0.5002135377576971</v>
+      </c>
+      <c r="H643" t="n">
+        <v>14.79947251357391</v>
+      </c>
+      <c r="I643" t="n">
+        <v>0.183791370357998</v>
+      </c>
+      <c r="J643" t="n">
+        <v>0.1417205842013696</v>
+      </c>
+      <c r="K643" t="n">
+        <v>0.1420495616710871</v>
+      </c>
+      <c r="L643" t="n">
+        <v>2</v>
+      </c>
+      <c r="M643" t="n">
+        <v>61.33271255165977</v>
+      </c>
+      <c r="N643" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>94.70322261169656</v>
+      </c>
+      <c r="B644" t="n">
+        <v>3.167790828302265</v>
+      </c>
+      <c r="C644" t="n">
+        <v>1.242494054639284</v>
+      </c>
+      <c r="D644" t="n">
+        <v>1.341225593326727</v>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F644" t="n">
+        <v>0.2880645003694881</v>
+      </c>
+      <c r="G644" t="n">
+        <v>1.769147284226679</v>
+      </c>
+      <c r="H644" t="n">
+        <v>300</v>
+      </c>
+      <c r="I644" t="n">
+        <v>0.0026673329457364</v>
+      </c>
+      <c r="J644" t="n">
+        <v>0.04011662391304349</v>
+      </c>
+      <c r="K644" t="n">
+        <v>0.07113111666666672</v>
+      </c>
+      <c r="L644" t="n">
+        <v>900</v>
+      </c>
+      <c r="M644" t="n">
+        <v>49.86019749698141</v>
+      </c>
+      <c r="N644" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>116.0276062095902</v>
+      </c>
+      <c r="B645" t="n">
+        <v>2.585591565666582</v>
+      </c>
+      <c r="C645" t="n">
+        <v>1.34804030034814</v>
+      </c>
+      <c r="D645" t="n">
+        <v>1.237482297994522</v>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F645" t="n">
+        <v>1.476466484378603</v>
+      </c>
+      <c r="G645" t="n">
+        <v>1.931815181368503</v>
+      </c>
+      <c r="H645" t="n">
+        <v>300</v>
+      </c>
+      <c r="I645" t="n">
+        <v>0.005694215310642292</v>
+      </c>
+      <c r="J645" t="n">
+        <v>0.0177940547332186</v>
+      </c>
+      <c r="K645" t="n">
+        <v>0.01137823673469407</v>
+      </c>
+      <c r="L645" t="n">
+        <v>900</v>
+      </c>
+      <c r="M645" t="n">
+        <v>41.84768227310923</v>
+      </c>
+      <c r="N645" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>82.17365816075065</v>
+      </c>
+      <c r="B646" t="n">
+        <v>3.488489608792876</v>
+      </c>
+      <c r="C646" t="n">
+        <v>1.259574396512677</v>
+      </c>
+      <c r="D646" t="n">
+        <v>1.404173555515878</v>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F646" t="n">
+        <v>1.036718787122533</v>
+      </c>
+      <c r="G646" t="n">
+        <v>1.690281573049084</v>
+      </c>
+      <c r="H646" t="n">
+        <v>300</v>
+      </c>
+      <c r="I646" t="n">
+        <v>0.0009160102316603247</v>
+      </c>
+      <c r="J646" t="n">
+        <v>0.02264806922005569</v>
+      </c>
+      <c r="K646" t="n">
+        <v>0.02170626174785095</v>
+      </c>
+      <c r="L646" t="n">
+        <v>900</v>
+      </c>
+      <c r="M646" t="n">
+        <v>53.48920448831007</v>
+      </c>
+      <c r="N646" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>92.94496229072125</v>
+      </c>
+      <c r="B647" t="n">
+        <v>3.227716625045629</v>
+      </c>
+      <c r="C647" t="n">
+        <v>1.240356863539711</v>
+      </c>
+      <c r="D647" t="n">
+        <v>1.348769180812599</v>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F647" t="n">
+        <v>1.170489500363932</v>
+      </c>
+      <c r="G647" t="n">
+        <v>1.759867552774003</v>
+      </c>
+      <c r="H647" t="n">
+        <v>300</v>
+      </c>
+      <c r="I647" t="n">
+        <v>0.001246006388255227</v>
+      </c>
+      <c r="J647" t="n">
+        <v>0.0189028031587698</v>
+      </c>
+      <c r="K647" t="n">
+        <v>0.0545913640449438</v>
+      </c>
+      <c r="L647" t="n">
+        <v>900</v>
+      </c>
+      <c r="M647" t="n">
+        <v>50.33329404519522</v>
+      </c>
+      <c r="N647" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>1.035697101980585</v>
+      </c>
+      <c r="B648" t="n">
+        <v>2.751016315576198</v>
+      </c>
+      <c r="C648" t="n">
+        <v>0.859664179168188</v>
+      </c>
+      <c r="D648" t="n">
+        <v>1.590661291726049</v>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F648" t="n">
+        <v>2.880070432883298</v>
+      </c>
+      <c r="G648" t="n">
+        <v>0.5038699198217109</v>
+      </c>
+      <c r="H648" t="n">
+        <v>14.64300144859263</v>
+      </c>
+      <c r="I648" t="n">
+        <v>0.08443920514855308</v>
+      </c>
+      <c r="J648" t="n">
+        <v>2.300760294612902e-05</v>
+      </c>
+      <c r="K648" t="n">
+        <v>0.01388548983381874</v>
+      </c>
+      <c r="L648" t="n">
+        <v>2</v>
+      </c>
+      <c r="M648" t="n">
+        <v>61.31130361586511</v>
+      </c>
+      <c r="N648" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>80.89901024860998</v>
+      </c>
+      <c r="B649" t="n">
+        <v>3.551234243571</v>
+      </c>
+      <c r="C649" t="n">
+        <v>1.231824198732701</v>
+      </c>
+      <c r="D649" t="n">
+        <v>1.417577462282769</v>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F649" t="n">
+        <v>1.422588602691804</v>
+      </c>
+      <c r="G649" t="n">
+        <v>1.684064944830973</v>
+      </c>
+      <c r="H649" t="n">
+        <v>300</v>
+      </c>
+      <c r="I649" t="n">
+        <v>0.001299773467014043</v>
+      </c>
+      <c r="J649" t="n">
+        <v>0.005499350976290174</v>
+      </c>
+      <c r="K649" t="n">
+        <v>0.1104995042735043</v>
+      </c>
+      <c r="L649" t="n">
+        <v>900</v>
+      </c>
+      <c r="M649" t="n">
+        <v>54.17929133635025</v>
+      </c>
+      <c r="N649" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>0.9089929400940704</v>
+      </c>
+      <c r="B650" t="n">
+        <v>1.861608372234191</v>
+      </c>
+      <c r="C650" t="n">
+        <v>0.971238506815517</v>
+      </c>
+      <c r="D650" t="n">
+        <v>1.297937101508799</v>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F650" t="n">
+        <v>2.607853098008574</v>
+      </c>
+      <c r="G650" t="n">
+        <v>0.3621803843243219</v>
+      </c>
+      <c r="H650" t="n">
+        <v>7.851125640100343</v>
+      </c>
+      <c r="I650" t="n">
+        <v>0.2188884570818534</v>
+      </c>
+      <c r="J650" t="n">
+        <v>2.15117970432388e-05</v>
+      </c>
+      <c r="K650" t="n">
+        <v>0.163349374697505</v>
+      </c>
+      <c r="L650" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M650" t="n">
+        <v>46.89767831016155</v>
+      </c>
+      <c r="N650" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>1.852600295708765</v>
+      </c>
+      <c r="B651" t="n">
+        <v>3.401845977932582</v>
+      </c>
+      <c r="C651" t="n">
+        <v>0.9556338285998557</v>
+      </c>
+      <c r="D651" t="n">
+        <v>1.69307895324728</v>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F651" t="n">
+        <v>2.675634375426721</v>
+      </c>
+      <c r="G651" t="n">
+        <v>0.7229798695820493</v>
+      </c>
+      <c r="H651" t="n">
+        <v>39.19150388526305</v>
+      </c>
+      <c r="I651" t="n">
+        <v>0.007910048181168416</v>
+      </c>
+      <c r="J651" t="n">
+        <v>0.008410463558600145</v>
+      </c>
+      <c r="K651" t="n">
+        <v>0.1483759242609164</v>
+      </c>
+      <c r="L651" t="n">
+        <v>15.35973976788588</v>
+      </c>
+      <c r="M651" t="n">
+        <v>64.46471541363734</v>
+      </c>
+      <c r="N651" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
